--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\Experimental Phase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependentPBEE\ExperimentalProgram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Label</t>
   </si>
@@ -155,14 +155,18 @@
   <si>
     <t>More than the required 94% difference in ASTM A706</t>
   </si>
+  <si>
+    <t>Measured Corrosion Level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -246,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,26 +276,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +610,11 @@
     <col min="12" max="12" width="22.7109375" customWidth="1"/>
     <col min="13" max="13" width="30.28515625" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -643,828 +658,858 @@
         <v>17</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="15">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="13">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="13">
-        <v>6.3985000000000003</v>
-      </c>
-      <c r="N2" s="13">
+      <c r="M2" s="20">
+        <v>6.27</v>
+      </c>
+      <c r="N2" s="20">
         <f>+K2-M2</f>
-        <v>1.1000000000000121E-2</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+        <v>0.13950000000000085</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="1"/>
-      <c r="R3">
-        <f>+L2*0.0022</f>
-        <v>2.7940000000000002E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="23">
+        <f>+N2/(G2*21)</f>
+        <v>5.4929761421025472E-2</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14">
         <v>6</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" ref="F5" si="0">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" ref="G5" si="1">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f t="shared" ref="H5" si="2">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f t="shared" ref="I5" si="3">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <f t="shared" ref="J5" si="4">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="13">
         <f t="shared" ref="L5" si="5">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11">
+      <c r="M5" s="19"/>
+      <c r="N5" s="18">
         <f t="shared" ref="N5" si="6">+K5-M5</f>
         <v>6.3849999999999998</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="1">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>6.16</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" ref="F8" si="7">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" ref="G8" si="8">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" ref="H8" si="9">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f t="shared" ref="I8" si="10">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f t="shared" ref="J8" si="11">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="13">
         <f t="shared" ref="L8" si="12">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11">
+      <c r="M8" s="19"/>
+      <c r="N8" s="18">
         <f t="shared" ref="N8" si="13">+K8-M8</f>
         <v>6.3975</v>
       </c>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="1">
         <v>0.82</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f t="shared" ref="F11" si="14">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" ref="G11" si="15">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f t="shared" ref="H11" si="16">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <f t="shared" ref="I11" si="17">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <f t="shared" ref="J11" si="18">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="13">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11">
+      <c r="M11" s="19"/>
+      <c r="N11" s="18">
         <f t="shared" ref="N11" si="19">+K11-M11</f>
         <v>6.3724999999999996</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="1">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>51</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f t="shared" ref="F14" si="20">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f t="shared" ref="G14" si="21">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <f t="shared" ref="H14" si="22">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <f t="shared" ref="I14" si="23">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <f t="shared" ref="J14" si="24">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <v>3.3919999999999999</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="13">
         <f t="shared" ref="L14" si="25">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11">
+      <c r="M14" s="19"/>
+      <c r="N14" s="18">
         <f t="shared" ref="N14" si="26">+K14-M14</f>
         <v>3.3919999999999999</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="1">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>51</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <f t="shared" ref="F17" si="27">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" ref="G17" si="28">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <f t="shared" ref="H17" si="29">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <f t="shared" ref="I17" si="30">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <f t="shared" ref="J17" si="31">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <v>6.383</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="13">
         <f t="shared" ref="L17" si="32">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11">
+      <c r="M17" s="19"/>
+      <c r="N17" s="18">
         <f t="shared" ref="N17" si="33">+K17-M17</f>
         <v>6.383</v>
       </c>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="1">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="1">
         <v>0.82</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>0.8</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <f t="shared" ref="F20" si="34">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f t="shared" ref="G20" si="35">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f t="shared" ref="H20" si="36">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <f t="shared" ref="I20" si="37">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <f t="shared" ref="J20" si="38">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="13">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11">
+      <c r="M20" s="19"/>
+      <c r="N20" s="18">
         <f t="shared" ref="N20" si="39">+K20-M20</f>
         <v>6.3884999999999996</v>
       </c>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="1">
         <v>0.79</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
       <c r="B22" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f t="shared" ref="F23" si="40">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <f t="shared" ref="G23" si="41">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <f t="shared" ref="H23" si="42">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <f t="shared" ref="I23" si="43">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="15">
         <f t="shared" ref="J23" si="44">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="14">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="13">
         <f t="shared" ref="L23" si="45">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="11">
+      <c r="M23" s="19"/>
+      <c r="N23" s="18">
         <f t="shared" ref="N23" si="46">+K23-M23</f>
         <v>6.4050000000000002</v>
       </c>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
       <c r="B24" s="1">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
       <c r="B25" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>51</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" ref="F26" si="47">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <f t="shared" ref="G26" si="48">+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <f t="shared" ref="H26" si="49">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <f t="shared" ref="I26" si="50">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="15">
         <f t="shared" ref="J26" si="51">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="13">
         <f t="shared" ref="L26" si="52">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="11">
+      <c r="M26" s="19"/>
+      <c r="N26" s="18">
         <f t="shared" ref="N26" si="53">+K26-M26</f>
         <v>6.4015000000000004</v>
       </c>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
       <c r="B27" s="1">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1500,86 +1545,28 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -1602,24 +1589,83 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Label</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Measured Corrosion Level</t>
+  </si>
+  <si>
+    <t>CL20-T-G80</t>
+  </si>
+  <si>
+    <t>CL20-BBT-1-3-G80</t>
+  </si>
+  <si>
+    <t>CL20-BBT-4-6-G80</t>
+  </si>
+  <si>
+    <t>CL25-T-G80</t>
+  </si>
+  <si>
+    <t>CL25-BBT-1-3-G80</t>
+  </si>
+  <si>
+    <t>CL25-BBT-4-6-G80</t>
   </si>
 </sst>
 </file>
@@ -205,7 +223,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +236,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,12 +287,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -270,41 +352,125 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="O35" sqref="O35:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,908 +831,1482 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="21">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="21">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="21">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="22">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="22">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="22">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="22">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="23">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="21">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="24">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="25">
         <v>6.27</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="25">
         <f>+K2-M2</f>
         <v>0.13950000000000085</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14">
-        <v>6.4095000000000004</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="23">
+      <c r="O2" s="48">
         <f>+N2/(G2*21)</f>
         <v>5.4929761421025472E-2</v>
       </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="28">
+        <v>6.4095000000000004</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="1"/>
-      <c r="U3" s="22"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1">
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="28">
         <v>6</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="27">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="29">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="28">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="29">
         <f t="shared" ref="F5" si="0">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="29">
         <f t="shared" ref="G5" si="1">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="29">
         <f t="shared" ref="H5" si="2">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="29">
         <f t="shared" ref="I5" si="3">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="30">
         <f t="shared" ref="J5" si="4">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="28">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="31">
         <f t="shared" ref="L5" si="5">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18">
+      <c r="M5" s="32">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="N5" s="25">
         <f t="shared" ref="N5" si="6">+K5-M5</f>
-        <v>6.3849999999999998</v>
-      </c>
-      <c r="O5" s="11"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="O5" s="48">
+        <f t="shared" ref="O5" si="7">+N5/(G5*21)</f>
+        <v>4.3537249072934103E-2</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="11"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1">
+    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="11"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="27">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="29">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="28">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="28">
         <v>6.16</v>
       </c>
-      <c r="F8" s="16">
-        <f t="shared" ref="F8" si="7">+G8*12</f>
+      <c r="F8" s="29">
+        <f t="shared" ref="F8" si="8">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="16">
-        <f t="shared" ref="G8" si="8">+E8/D8</f>
+      <c r="G8" s="29">
+        <f t="shared" ref="G8" si="9">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="16">
-        <f t="shared" ref="H8" si="9">0.25*PI()*C8^2*D8</f>
+      <c r="H8" s="29">
+        <f t="shared" ref="H8" si="10">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8" si="10">+E8/H8</f>
+      <c r="I8" s="29">
+        <f t="shared" ref="I8" si="11">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" ref="J8" si="11">+I8*12^3</f>
+      <c r="J8" s="30">
+        <f t="shared" ref="J8" si="12">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="28">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="13">
-        <f t="shared" ref="L8" si="12">ROUND(G8*21*0.05,4)</f>
+      <c r="L8" s="31">
+        <f t="shared" ref="L8" si="13">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18">
-        <f t="shared" ref="N8" si="13">+K8-M8</f>
-        <v>6.3975</v>
-      </c>
-      <c r="O8" s="11"/>
+      <c r="M8" s="32">
+        <v>6.2450000000000001</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" ref="N8" si="14">+K8-M8</f>
+        <v>0.15249999999999986</v>
+      </c>
+      <c r="O8" s="48">
+        <f t="shared" ref="O8" si="15">+N8/(G8*21)</f>
+        <v>6.0196592841682071E-2</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="11"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="1">
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27">
         <v>0.82</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="11"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="49"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="27">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="28">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="28">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="28">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="16">
-        <f t="shared" ref="F11" si="14">+G11*12</f>
+      <c r="F11" s="29">
+        <f t="shared" ref="F11" si="16">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="16">
-        <f t="shared" ref="G11" si="15">+E11/D11</f>
+      <c r="G11" s="29">
+        <f t="shared" ref="G11" si="17">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="16">
-        <f t="shared" ref="H11" si="16">0.25*PI()*C11^2*D11</f>
+      <c r="H11" s="29">
+        <f t="shared" ref="H11" si="18">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" ref="I11" si="17">+E11/H11</f>
+      <c r="I11" s="29">
+        <f t="shared" ref="I11" si="19">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="15">
-        <f t="shared" ref="J11" si="18">+I11*12^3</f>
+      <c r="J11" s="30">
+        <f t="shared" ref="J11" si="20">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="28">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="31">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18">
-        <f t="shared" ref="N11" si="19">+K11-M11</f>
-        <v>6.3724999999999996</v>
-      </c>
-      <c r="O11" s="11"/>
+      <c r="M11" s="32">
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" ref="N11" si="21">+K11-M11</f>
+        <v>0.26749999999999918</v>
+      </c>
+      <c r="O11" s="50">
+        <f t="shared" ref="O11" si="22">+N11/(G11*21)</f>
+        <v>0.10548025899702251</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="11"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="1">
+    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="11"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="27">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="28">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="28">
         <v>51</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="28">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="16">
-        <f t="shared" ref="F14" si="20">+G14*12</f>
+      <c r="F14" s="29">
+        <f t="shared" ref="F14" si="23">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="16">
-        <f t="shared" ref="G14" si="21">+E14/D14</f>
+      <c r="G14" s="29">
+        <f t="shared" ref="G14" si="24">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="16">
-        <f t="shared" ref="H14" si="22">0.25*PI()*C14^2*D14</f>
+      <c r="H14" s="29">
+        <f t="shared" ref="H14" si="25">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="16">
-        <f t="shared" ref="I14" si="23">+E14/H14</f>
+      <c r="I14" s="29">
+        <f t="shared" ref="I14" si="26">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" ref="J14" si="24">+I14*12^3</f>
+      <c r="J14" s="30">
+        <f t="shared" ref="J14" si="27">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="14">
-        <v>3.3919999999999999</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" ref="L14" si="25">ROUND(G14*21*0.1,4)</f>
+      <c r="K14" s="28">
+        <v>6.3920000000000003</v>
+      </c>
+      <c r="L14" s="31">
+        <f t="shared" ref="L14" si="28">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18">
-        <f t="shared" ref="N14" si="26">+K14-M14</f>
-        <v>3.3919999999999999</v>
-      </c>
-      <c r="O14" s="11"/>
+      <c r="M14" s="32">
+        <v>6.32</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" ref="N14" si="29">+K14-M14</f>
+        <v>7.2000000000000064E-2</v>
+      </c>
+      <c r="O14" s="48">
+        <f t="shared" ref="O14" si="30">+N14/(G14*21)</f>
+        <v>2.7155947019279859E-2</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="11"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="1">
+    <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="11"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="27">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="28">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="28">
         <v>51</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="28">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" ref="F17" si="27">+G17*12</f>
+      <c r="F17" s="29">
+        <f t="shared" ref="F17" si="31">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="16">
-        <f t="shared" ref="G17" si="28">+E17/D17</f>
+      <c r="G17" s="29">
+        <f t="shared" ref="G17" si="32">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="16">
-        <f t="shared" ref="H17" si="29">0.25*PI()*C17^2*D17</f>
+      <c r="H17" s="29">
+        <f t="shared" ref="H17" si="33">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="16">
-        <f t="shared" ref="I17" si="30">+E17/H17</f>
+      <c r="I17" s="29">
+        <f t="shared" ref="I17" si="34">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" ref="J17" si="31">+I17*12^3</f>
+      <c r="J17" s="30">
+        <f t="shared" ref="J17" si="35">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="28">
         <v>6.383</v>
       </c>
-      <c r="L17" s="13">
-        <f t="shared" ref="L17" si="32">ROUND(G17*21*0.1,4)</f>
+      <c r="L17" s="31">
+        <f t="shared" ref="L17" si="36">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18">
-        <f t="shared" ref="N17" si="33">+K17-M17</f>
-        <v>6.383</v>
-      </c>
-      <c r="O17" s="11"/>
+      <c r="M17" s="32">
+        <v>6.07</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" ref="N17" si="37">+K17-M17</f>
+        <v>0.31299999999999972</v>
+      </c>
+      <c r="O17" s="50">
+        <f t="shared" ref="O17" si="38">+N17/(G17*21)</f>
+        <v>0.12408469754209213</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="11"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="51"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="1">
+    <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27">
         <v>0.82</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="11"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="27">
         <v>0.8</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="28">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="28">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="28">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="16">
-        <f t="shared" ref="F20" si="34">+G20*12</f>
+      <c r="F20" s="29">
+        <f t="shared" ref="F20" si="39">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="16">
-        <f t="shared" ref="G20" si="35">+E20/D20</f>
+      <c r="G20" s="29">
+        <f t="shared" ref="G20" si="40">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="16">
-        <f t="shared" ref="H20" si="36">0.25*PI()*C20^2*D20</f>
+      <c r="H20" s="29">
+        <f t="shared" ref="H20" si="41">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="16">
-        <f t="shared" ref="I20" si="37">+E20/H20</f>
+      <c r="I20" s="29">
+        <f t="shared" ref="I20" si="42">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" ref="J20" si="38">+I20*12^3</f>
+      <c r="J20" s="30">
+        <f t="shared" ref="J20" si="43">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="28">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="31">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="18">
-        <f t="shared" ref="N20" si="39">+K20-M20</f>
-        <v>6.3884999999999996</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="M20" s="32">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" ref="N20" si="44">+K20-M20</f>
+        <v>0.50349999999999984</v>
+      </c>
+      <c r="O20" s="52">
+        <f t="shared" ref="O20" si="45">+N20/(G20*21)</f>
+        <v>0.1990544225982401</v>
+      </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27">
         <v>0.79</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="11"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="1">
+    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="11"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="27">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="28">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="28">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="28">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23" si="40">+G23*12</f>
+      <c r="F23" s="29">
+        <f t="shared" ref="F23" si="46">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" ref="G23" si="41">+E23/D23</f>
+      <c r="G23" s="29">
+        <f t="shared" ref="G23" si="47">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="16">
-        <f t="shared" ref="H23" si="42">0.25*PI()*C23^2*D23</f>
+      <c r="H23" s="29">
+        <f t="shared" ref="H23" si="48">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23" si="43">+E23/H23</f>
+      <c r="I23" s="29">
+        <f t="shared" ref="I23" si="49">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" ref="J23" si="44">+I23*12^3</f>
+      <c r="J23" s="30">
+        <f t="shared" ref="J23" si="50">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="28">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="13">
-        <f t="shared" ref="L23" si="45">ROUND(G23*21*0.15,4)</f>
+      <c r="L23" s="31">
+        <f t="shared" ref="L23" si="51">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18">
-        <f t="shared" ref="N23" si="46">+K23-M23</f>
-        <v>6.4050000000000002</v>
-      </c>
-      <c r="O23" s="11"/>
+      <c r="M23" s="32">
+        <v>6.125</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" ref="N23" si="52">+K23-M23</f>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="O23" s="50">
+        <f t="shared" ref="O23" si="53">+N23/(G23*21)</f>
+        <v>0.1106326508503955</v>
+      </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="11"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="1">
+    <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="11"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="27">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="28">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="28">
         <v>51</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="28">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="16">
-        <f t="shared" ref="F26" si="47">+G26*12</f>
+      <c r="F26" s="29">
+        <f t="shared" ref="F26" si="54">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="16">
-        <f t="shared" ref="G26" si="48">+E26/D26</f>
+      <c r="G26" s="29">
+        <f>+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="16">
-        <f t="shared" ref="H26" si="49">0.25*PI()*C26^2*D26</f>
+      <c r="H26" s="29">
+        <f t="shared" ref="H26" si="55">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="16">
-        <f t="shared" ref="I26" si="50">+E26/H26</f>
+      <c r="I26" s="29">
+        <f t="shared" ref="I26" si="56">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" ref="J26" si="51">+I26*12^3</f>
+      <c r="J26" s="30">
+        <f t="shared" ref="J26" si="57">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="28">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="13">
-        <f t="shared" ref="L26" si="52">ROUND(G26*21*0.15,4)</f>
+      <c r="L26" s="31">
+        <f t="shared" ref="L26" si="58">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="18">
-        <f t="shared" ref="N26" si="53">+K26-M26</f>
-        <v>6.4015000000000004</v>
-      </c>
-      <c r="O26" s="11"/>
+      <c r="M26" s="32">
+        <v>6.16</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" ref="N26" si="59">+K26-M26</f>
+        <v>0.24150000000000027</v>
+      </c>
+      <c r="O26" s="50">
+        <f>+N26/(G26*21)</f>
+        <v>9.5427920598763538E-2</v>
+      </c>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="12"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="12"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="28">
+        <v>6.375</v>
+      </c>
+      <c r="L29" s="31">
+        <f>ROUND(G29*21*0.2,4)</f>
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="M29" s="32">
+        <v>5.875</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" ref="N29:N44" si="60">+K29-M29</f>
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="52">
+        <f>+N29/(G29*21)</f>
+        <v>0.19677292404565133</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="28">
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="L32" s="31">
+        <f t="shared" ref="L32:L40" si="61">ROUND(G32*21*0.2,4)</f>
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="M32" s="32">
+        <v>5.8650000000000002</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="60"/>
+        <v>0.5699999999999994</v>
+      </c>
+      <c r="O32" s="52">
+        <f t="shared" ref="O32" si="62">+N32/(G32*21)</f>
+        <v>0.22432113341204227</v>
+      </c>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="28">
+        <v>6.375</v>
+      </c>
+      <c r="L35" s="31">
+        <f t="shared" ref="L35:L40" si="63">ROUND(G35*21*0.2,4)</f>
+        <v>0.50819999999999999</v>
+      </c>
+      <c r="M35" s="32">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="60"/>
+        <v>0.21999999999999975</v>
+      </c>
+      <c r="O35" s="50">
+        <f t="shared" ref="O35" si="64">+N35/(G35*21)</f>
+        <v>8.6580086580086479E-2</v>
+      </c>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="28">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="L38" s="31">
+        <f>ROUND(G38*21*0.25,4)</f>
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="M38" s="32">
+        <v>5.93</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="60"/>
+        <v>0.53500000000000014</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" ref="O38" si="65">+N38/(G38*21)</f>
+        <v>0.21054702872884698</v>
+      </c>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="28">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="L41" s="31">
+        <f t="shared" ref="L41:L46" si="66">ROUND(G41*21*0.25,4)</f>
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="M41" s="32">
+        <v>5.95</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="60"/>
+        <v>0.36500000000000021</v>
+      </c>
+      <c r="O41" s="46">
+        <f t="shared" ref="O41" si="67">+N41/(G41*21)</f>
+        <v>0.14364423455332556</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="43">
+        <v>0.121</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="18">
+        <v>6.42</v>
+      </c>
+      <c r="L44" s="31">
+        <f t="shared" ref="L44:L46" si="68">ROUND(G44*21*0.25,4)</f>
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="M44" s="16">
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="N44" s="25">
+        <f t="shared" si="60"/>
+        <v>0.43499999999999961</v>
+      </c>
+      <c r="O44" s="46">
+        <f t="shared" ref="O44" si="69">+N44/(G44*21)</f>
+        <v>0.1711924439197165</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3">
         <f>AVERAGE(C2:C28)</f>
         <v>0.80629629629629629</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D47" s="3">
         <f>AVERAGE(D2:D28)</f>
         <v>51.034722222222221</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E47" s="3">
         <f>AVERAGE(E2:E28)</f>
         <v>6.1836666666666673</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F47" s="3">
         <f>AVERAGE(F2:F28)</f>
         <v>1.4539969115318172</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4">
         <f>AVERAGE(J2:J28)</f>
         <v>410.28608160427189</v>
       </c>
-      <c r="K29" s="3">
-        <f>AVERAGE(K2:K28)</f>
-        <v>6.0858181818181833</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
+      <c r="K47" s="3">
+        <f>AVERAGE(K2:K46)</f>
+        <v>6.3722941176470602</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
+  <mergeCells count="168">
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -1589,83 +2329,26 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1713,7 +2396,7 @@
         <v>0.75</v>
       </c>
       <c r="C2" s="9">
-        <f>+Sheet1!C29</f>
+        <f>+Sheet1!C47</f>
         <v>0.80629629629629629</v>
       </c>
       <c r="D2" s="10">
@@ -1732,7 +2415,7 @@
         <v>1.502</v>
       </c>
       <c r="C3" s="9">
-        <f>+Sheet1!F29</f>
+        <f>+Sheet1!F47</f>
         <v>1.4539969115318172</v>
       </c>
       <c r="D3" s="10">

--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Label</t>
   </si>
@@ -176,6 +177,18 @@
   <si>
     <t>CL25-BBT-4-6-G80</t>
   </si>
+  <si>
+    <t>Relabeling</t>
+  </si>
+  <si>
+    <t>Current Label</t>
+  </si>
+  <si>
+    <t>Average corrosion level</t>
+  </si>
+  <si>
+    <t>Number of specimens</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +199,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +234,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -261,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -327,12 +348,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,37 +401,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,24 +412,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,20 +422,93 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,24 +516,9 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35:O37"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,9 +824,11 @@
     <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.85546875" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -829,1249 +877,1745 @@
       <c r="P1" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="R1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="31">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="31">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="31">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="35">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="35">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="35">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="35">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="36">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="31">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="39">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="28">
         <v>6.27</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="28">
         <f>+K2-M2</f>
         <v>0.13950000000000085</v>
       </c>
-      <c r="O2" s="48">
+      <c r="O2" s="49">
         <f>+N2/(G2*21)</f>
         <v>5.4929761421025472E-2</v>
       </c>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27">
+      <c r="R2" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF2,"-T-",$AG2)</f>
+        <v>CL-5-T-1</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="32">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="49"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="1"/>
+      <c r="R3" s="25" t="str">
+        <f t="shared" ref="R3:R22" si="0">+CONCATENATE("CL-",$AF3,"-T-",$AG3)</f>
+        <v>CL-5-T-2</v>
+      </c>
+      <c r="S3" s="27"/>
       <c r="U3" s="15"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27">
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="28">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="32">
         <v>6</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="49"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="R4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-5-T-3</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="34">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="32">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="32">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="29">
-        <f t="shared" ref="F5" si="0">+G5*12</f>
+      <c r="F5" s="34">
+        <f t="shared" ref="F5" si="1">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="29">
-        <f t="shared" ref="G5" si="1">+E5/D5</f>
+      <c r="G5" s="34">
+        <f t="shared" ref="G5" si="2">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="29">
-        <f t="shared" ref="H5" si="2">0.25*PI()*C5^2*D5</f>
+      <c r="H5" s="34">
+        <f t="shared" ref="H5" si="3">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="29">
-        <f t="shared" ref="I5" si="3">+E5/H5</f>
+      <c r="I5" s="34">
+        <f t="shared" ref="I5" si="4">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="30">
-        <f t="shared" ref="J5" si="4">+I5*12^3</f>
+      <c r="J5" s="37">
+        <f t="shared" ref="J5" si="5">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="32">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="31">
-        <f t="shared" ref="L5" si="5">ROUND(G5*21*0.05,4)</f>
+      <c r="L5" s="38">
+        <f t="shared" ref="L5" si="6">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="29">
         <v>6.2750000000000004</v>
       </c>
-      <c r="N5" s="25">
-        <f t="shared" ref="N5" si="6">+K5-M5</f>
+      <c r="N5" s="28">
+        <f t="shared" ref="N5" si="7">+K5-M5</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="O5" s="48">
-        <f t="shared" ref="O5" si="7">+N5/(G5*21)</f>
+      <c r="O5" s="49">
+        <f t="shared" ref="O5" si="8">+N5/(G5*21)</f>
         <v>4.3537249072934103E-2</v>
       </c>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27">
+      <c r="R5" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF5,"-BBT-",$AG5)</f>
+        <v>CL-5-BBT-1</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="49"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27">
+      <c r="R6" s="25" t="str">
+        <f t="shared" ref="R6:R10" si="9">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
+        <v>CL-5-BBT-2</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="17">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="49"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="R7" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>CL-5-BBT-3</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="AF7">
         <v>5</v>
       </c>
-      <c r="B8" s="27">
+      <c r="AG7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="34">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="32">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="32">
         <v>6.16</v>
       </c>
-      <c r="F8" s="29">
-        <f t="shared" ref="F8" si="8">+G8*12</f>
+      <c r="F8" s="34">
+        <f t="shared" ref="F8" si="10">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="29">
-        <f t="shared" ref="G8" si="9">+E8/D8</f>
+      <c r="G8" s="34">
+        <f t="shared" ref="G8" si="11">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="29">
-        <f t="shared" ref="H8" si="10">0.25*PI()*C8^2*D8</f>
+      <c r="H8" s="34">
+        <f t="shared" ref="H8" si="12">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="29">
-        <f t="shared" ref="I8" si="11">+E8/H8</f>
+      <c r="I8" s="34">
+        <f t="shared" ref="I8" si="13">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="30">
-        <f t="shared" ref="J8" si="12">+I8*12^3</f>
+      <c r="J8" s="37">
+        <f t="shared" ref="J8" si="14">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="32">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="31">
-        <f t="shared" ref="L8" si="13">ROUND(G8*21*0.05,4)</f>
+      <c r="L8" s="38">
+        <f t="shared" ref="L8" si="15">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="29">
         <v>6.2450000000000001</v>
       </c>
-      <c r="N8" s="25">
-        <f t="shared" ref="N8" si="14">+K8-M8</f>
+      <c r="N8" s="28">
+        <f t="shared" ref="N8" si="16">+K8-M8</f>
         <v>0.15249999999999986</v>
       </c>
-      <c r="O8" s="48">
-        <f t="shared" ref="O8" si="15">+N8/(G8*21)</f>
+      <c r="O8" s="49">
+        <f t="shared" ref="O8" si="17">+N8/(G8*21)</f>
         <v>6.0196592841682071E-2</v>
       </c>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27">
+      <c r="R8" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>CL-5-BBT-4</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="49"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="50"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27">
+      <c r="R9" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>CL-5-BBT-5</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="17">
         <v>0.82</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="49"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="R10" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>CL-5-BBT-6</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10">
         <v>6</v>
       </c>
-      <c r="B11" s="27">
+    </row>
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="32">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="32">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="32">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="29">
-        <f t="shared" ref="F11" si="16">+G11*12</f>
+      <c r="F11" s="34">
+        <f t="shared" ref="F11" si="18">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="29">
-        <f t="shared" ref="G11" si="17">+E11/D11</f>
+      <c r="G11" s="34">
+        <f t="shared" ref="G11" si="19">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="29">
-        <f t="shared" ref="H11" si="18">0.25*PI()*C11^2*D11</f>
+      <c r="H11" s="34">
+        <f t="shared" ref="H11" si="20">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="29">
-        <f t="shared" ref="I11" si="19">+E11/H11</f>
+      <c r="I11" s="34">
+        <f t="shared" ref="I11" si="21">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="30">
-        <f t="shared" ref="J11" si="20">+I11*12^3</f>
+      <c r="J11" s="37">
+        <f t="shared" ref="J11" si="22">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="32">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="38">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="29">
         <v>6.1050000000000004</v>
       </c>
-      <c r="N11" s="25">
-        <f t="shared" ref="N11" si="21">+K11-M11</f>
+      <c r="N11" s="28">
+        <f t="shared" ref="N11" si="23">+K11-M11</f>
         <v>0.26749999999999918</v>
       </c>
-      <c r="O11" s="50">
-        <f t="shared" ref="O11" si="22">+N11/(G11*21)</f>
+      <c r="O11" s="51">
+        <f t="shared" ref="O11" si="24">+N11/(G11*21)</f>
         <v>0.10548025899702251</v>
       </c>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27">
+      <c r="R11" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF11,"-T-",$AG11)</f>
+        <v>CL-10-T-1</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="17">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="51"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27">
+      <c r="R12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-10-T-2</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="AF12">
+        <v>10</v>
+      </c>
+      <c r="AG12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="17">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="51"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="52"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="R13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-10-T-3</v>
+      </c>
+      <c r="S13" s="27"/>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="32">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="32">
         <v>51</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="32">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="29">
-        <f t="shared" ref="F14" si="23">+G14*12</f>
+      <c r="F14" s="34">
+        <f t="shared" ref="F14" si="25">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="29">
-        <f t="shared" ref="G14" si="24">+E14/D14</f>
+      <c r="G14" s="34">
+        <f t="shared" ref="G14" si="26">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="29">
-        <f t="shared" ref="H14" si="25">0.25*PI()*C14^2*D14</f>
+      <c r="H14" s="34">
+        <f t="shared" ref="H14" si="27">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="29">
-        <f t="shared" ref="I14" si="26">+E14/H14</f>
+      <c r="I14" s="34">
+        <f t="shared" ref="I14" si="28">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="30">
-        <f t="shared" ref="J14" si="27">+I14*12^3</f>
+      <c r="J14" s="37">
+        <f t="shared" ref="J14" si="29">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="32">
         <v>6.3920000000000003</v>
       </c>
-      <c r="L14" s="31">
-        <f t="shared" ref="L14" si="28">ROUND(G14*21*0.1,4)</f>
+      <c r="L14" s="38">
+        <f t="shared" ref="L14" si="30">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="29">
         <v>6.32</v>
       </c>
-      <c r="N14" s="25">
-        <f t="shared" ref="N14" si="29">+K14-M14</f>
+      <c r="N14" s="28">
+        <f t="shared" ref="N14" si="31">+K14-M14</f>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="O14" s="48">
-        <f t="shared" ref="O14" si="30">+N14/(G14*21)</f>
+      <c r="O14" s="49">
+        <f t="shared" ref="O14" si="32">+N14/(G14*21)</f>
         <v>2.7155947019279859E-2</v>
       </c>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27">
+      <c r="R14" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF14,"-T-",$AG14)</f>
+        <v>CL-3-T-1</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="49"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27">
+      <c r="R15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-3-T-2</v>
+      </c>
+      <c r="S15" s="27"/>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="17">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="49"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="R16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-3-T-3</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="17">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="32">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="32">
         <v>51</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="32">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="29">
-        <f t="shared" ref="F17" si="31">+G17*12</f>
+      <c r="F17" s="34">
+        <f t="shared" ref="F17" si="33">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="29">
-        <f t="shared" ref="G17" si="32">+E17/D17</f>
+      <c r="G17" s="34">
+        <f t="shared" ref="G17" si="34">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="29">
-        <f t="shared" ref="H17" si="33">0.25*PI()*C17^2*D17</f>
+      <c r="H17" s="34">
+        <f t="shared" ref="H17" si="35">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="29">
-        <f t="shared" ref="I17" si="34">+E17/H17</f>
+      <c r="I17" s="34">
+        <f t="shared" ref="I17" si="36">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="30">
-        <f t="shared" ref="J17" si="35">+I17*12^3</f>
+      <c r="J17" s="37">
+        <f t="shared" ref="J17" si="37">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="32">
         <v>6.383</v>
       </c>
-      <c r="L17" s="31">
-        <f t="shared" ref="L17" si="36">ROUND(G17*21*0.1,4)</f>
+      <c r="L17" s="38">
+        <f t="shared" ref="L17" si="38">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="29">
         <v>6.07</v>
       </c>
-      <c r="N17" s="25">
-        <f t="shared" ref="N17" si="37">+K17-M17</f>
+      <c r="N17" s="28">
+        <f t="shared" ref="N17" si="39">+K17-M17</f>
         <v>0.31299999999999972</v>
       </c>
-      <c r="O17" s="50">
-        <f t="shared" ref="O17" si="38">+N17/(G17*21)</f>
+      <c r="O17" s="51">
+        <f t="shared" ref="O17" si="40">+N17/(G17*21)</f>
         <v>0.12408469754209213</v>
       </c>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27">
+      <c r="R17" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF17,"-BBT-",$AG17)</f>
+        <v>CL-10-BBT-1</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF17">
+        <v>10</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="51"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27">
+      <c r="R18" s="25" t="str">
+        <f t="shared" ref="R18:R19" si="41">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
+        <v>CL-10-BBT-2</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="AF18">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="17">
         <v>0.82</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="51"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="R19" s="25" t="str">
+        <f t="shared" si="41"/>
+        <v>CL-10-BBT-3</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="AF19">
+        <v>10</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="17">
         <v>0.8</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="32">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="32">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="32">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="29">
-        <f t="shared" ref="F20" si="39">+G20*12</f>
+      <c r="F20" s="34">
+        <f t="shared" ref="F20" si="42">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="29">
-        <f t="shared" ref="G20" si="40">+E20/D20</f>
+      <c r="G20" s="34">
+        <f t="shared" ref="G20" si="43">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="29">
-        <f t="shared" ref="H20" si="41">0.25*PI()*C20^2*D20</f>
+      <c r="H20" s="34">
+        <f t="shared" ref="H20" si="44">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="29">
-        <f t="shared" ref="I20" si="42">+E20/H20</f>
+      <c r="I20" s="34">
+        <f t="shared" ref="I20" si="45">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="30">
-        <f t="shared" ref="J20" si="43">+I20*12^3</f>
+      <c r="J20" s="37">
+        <f t="shared" ref="J20" si="46">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="32">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="38">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="29">
         <v>5.8849999999999998</v>
       </c>
-      <c r="N20" s="25">
-        <f t="shared" ref="N20" si="44">+K20-M20</f>
+      <c r="N20" s="28">
+        <f t="shared" ref="N20" si="47">+K20-M20</f>
         <v>0.50349999999999984</v>
       </c>
-      <c r="O20" s="52">
-        <f t="shared" ref="O20" si="45">+N20/(G20*21)</f>
+      <c r="O20" s="53">
+        <f t="shared" ref="O20" si="48">+N20/(G20*21)</f>
         <v>0.1990544225982401</v>
       </c>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27">
+      <c r="R20" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF20,"-T-",$AG20)</f>
+        <v>CL-20-T-1</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF20">
+        <v>20</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17">
         <v>0.79</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="53"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27">
+      <c r="R21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-20-T-2</v>
+      </c>
+      <c r="S21" s="27"/>
+      <c r="AF21">
+        <v>20</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="17">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="53"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="R22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CL-20-T-3</v>
+      </c>
+      <c r="S22" s="27"/>
+      <c r="AF22">
+        <v>20</v>
+      </c>
+      <c r="AG22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="32">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="32">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="32">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="29">
-        <f t="shared" ref="F23" si="46">+G23*12</f>
+      <c r="F23" s="34">
+        <f t="shared" ref="F23" si="49">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="29">
-        <f t="shared" ref="G23" si="47">+E23/D23</f>
+      <c r="G23" s="34">
+        <f t="shared" ref="G23" si="50">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="29">
-        <f t="shared" ref="H23" si="48">0.25*PI()*C23^2*D23</f>
+      <c r="H23" s="34">
+        <f t="shared" ref="H23" si="51">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="29">
-        <f t="shared" ref="I23" si="49">+E23/H23</f>
+      <c r="I23" s="34">
+        <f t="shared" ref="I23" si="52">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="30">
-        <f t="shared" ref="J23" si="50">+I23*12^3</f>
+      <c r="J23" s="37">
+        <f t="shared" ref="J23" si="53">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="32">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="31">
-        <f t="shared" ref="L23" si="51">ROUND(G23*21*0.15,4)</f>
+      <c r="L23" s="38">
+        <f t="shared" ref="L23" si="54">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="29">
         <v>6.125</v>
       </c>
-      <c r="N23" s="25">
-        <f t="shared" ref="N23" si="52">+K23-M23</f>
+      <c r="N23" s="28">
+        <f t="shared" ref="N23" si="55">+K23-M23</f>
         <v>0.28000000000000025</v>
       </c>
-      <c r="O23" s="50">
-        <f t="shared" ref="O23" si="53">+N23/(G23*21)</f>
+      <c r="O23" s="51">
+        <f t="shared" ref="O23" si="56">+N23/(G23*21)</f>
         <v>0.1106326508503955</v>
       </c>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27">
+      <c r="R23" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF23,"-BBT-",$AG23)</f>
+        <v>CL-10-BBT-4</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF23">
+        <v>10</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="51"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27">
+      <c r="R24" s="25" t="str">
+        <f t="shared" ref="R24:R25" si="57">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
+        <v>CL-10-BBT-5</v>
+      </c>
+      <c r="S24" s="27"/>
+      <c r="AF24">
+        <v>10</v>
+      </c>
+      <c r="AG24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="51"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="R25" s="25" t="str">
+        <f t="shared" si="57"/>
+        <v>CL-10-BBT-6</v>
+      </c>
+      <c r="S25" s="27"/>
+      <c r="AF25">
         <v>10</v>
       </c>
-      <c r="B26" s="27">
+      <c r="AG25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="32">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="32">
         <v>51</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="32">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="29">
-        <f t="shared" ref="F26" si="54">+G26*12</f>
+      <c r="F26" s="34">
+        <f t="shared" ref="F26" si="58">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="34">
         <f>+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="29">
-        <f t="shared" ref="H26" si="55">0.25*PI()*C26^2*D26</f>
+      <c r="H26" s="34">
+        <f t="shared" ref="H26" si="59">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="29">
-        <f t="shared" ref="I26" si="56">+E26/H26</f>
+      <c r="I26" s="34">
+        <f t="shared" ref="I26" si="60">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="30">
-        <f t="shared" ref="J26" si="57">+I26*12^3</f>
+      <c r="J26" s="37">
+        <f t="shared" ref="J26" si="61">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="32">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="31">
-        <f t="shared" ref="L26" si="58">ROUND(G26*21*0.15,4)</f>
+      <c r="L26" s="38">
+        <f t="shared" ref="L26" si="62">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="29">
         <v>6.16</v>
       </c>
-      <c r="N26" s="25">
-        <f t="shared" ref="N26" si="59">+K26-M26</f>
+      <c r="N26" s="28">
+        <f t="shared" ref="N26" si="63">+K26-M26</f>
         <v>0.24150000000000027</v>
       </c>
-      <c r="O26" s="50">
+      <c r="O26" s="51">
         <f>+N26/(G26*21)</f>
         <v>9.5427920598763538E-2</v>
       </c>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27">
+      <c r="R26" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF26,"-BBT-",$AG26)</f>
+        <v>CL-10-BBT-7</v>
+      </c>
+      <c r="S26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <v>10</v>
+      </c>
+      <c r="AG26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="17">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="51"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27">
+      <c r="R27" s="25" t="str">
+        <f t="shared" ref="R27:R28" si="64">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
+        <v>CL-10-BBT-8</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="AF27">
+        <v>10</v>
+      </c>
+      <c r="AG27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="51"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="R28" s="25" t="str">
+        <f t="shared" si="64"/>
+        <v>CL-10-BBT-9</v>
+      </c>
+      <c r="S28" s="27"/>
+      <c r="AF28">
+        <v>10</v>
+      </c>
+      <c r="AG28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="43">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="44">
         <v>0.121</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="28">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="32">
         <v>6.375</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="38">
         <f>ROUND(G29*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="29">
         <v>5.875</v>
       </c>
-      <c r="N29" s="25">
-        <f t="shared" ref="N29:N44" si="60">+K29-M29</f>
+      <c r="N29" s="28">
+        <f t="shared" ref="N29:N44" si="65">+K29-M29</f>
         <v>0.5</v>
       </c>
-      <c r="O29" s="52">
+      <c r="O29" s="53">
         <f>+N29/(G29*21)</f>
         <v>0.19677292404565133</v>
       </c>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="53"/>
+      <c r="R29" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF29,"-BBT-",$AG29)</f>
+        <v>CL-20-BBT-1</v>
+      </c>
+      <c r="S29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF29">
+        <v>20</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="54"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="53"/>
+      <c r="R30" s="25" t="str">
+        <f t="shared" ref="R30:R31" si="66">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
+        <v>CL-20-BBT-2</v>
+      </c>
+      <c r="S30" s="27"/>
+      <c r="AF30">
+        <v>20</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="R31" s="25" t="str">
+        <f t="shared" si="66"/>
+        <v>CL-20-BBT-3</v>
+      </c>
+      <c r="S31" s="27"/>
+      <c r="AF31">
+        <v>20</v>
+      </c>
+      <c r="AG31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="43">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="44">
         <v>0.121</v>
       </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="28">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="32">
         <v>6.4349999999999996</v>
       </c>
-      <c r="L32" s="31">
-        <f t="shared" ref="L32:L40" si="61">ROUND(G32*21*0.2,4)</f>
+      <c r="L32" s="38">
+        <f t="shared" ref="L32" si="67">ROUND(G32*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="29">
         <v>5.8650000000000002</v>
       </c>
-      <c r="N32" s="25">
-        <f t="shared" si="60"/>
+      <c r="N32" s="28">
+        <f t="shared" si="65"/>
         <v>0.5699999999999994</v>
       </c>
-      <c r="O32" s="52">
-        <f t="shared" ref="O32" si="62">+N32/(G32*21)</f>
+      <c r="O32" s="53">
+        <f t="shared" ref="O32" si="68">+N32/(G32*21)</f>
         <v>0.22432113341204227</v>
       </c>
       <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="53"/>
+      <c r="R32" s="25" t="str">
+        <f>+CONCATENATE("CL-",$AF32,"-BBT-",$AG32)</f>
+        <v>CL-20-BBT-4</v>
+      </c>
+      <c r="S32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF32">
+        <v>20</v>
+      </c>
+      <c r="AG32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="53"/>
+      <c r="R33" s="25" t="str">
+        <f t="shared" ref="R33:R46" si="69">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
+        <v>CL-20-BBT-5</v>
+      </c>
+      <c r="S33" s="27"/>
+      <c r="AF33">
+        <v>20</v>
+      </c>
+      <c r="AG33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="54"/>
       <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="R34" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-20-BBT-6</v>
+      </c>
+      <c r="S34" s="27"/>
+      <c r="AF34">
+        <v>20</v>
+      </c>
+      <c r="AG34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="43">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="44">
         <v>0.121</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="28">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="32">
         <v>6.375</v>
       </c>
-      <c r="L35" s="31">
-        <f t="shared" ref="L35:L40" si="63">ROUND(G35*21*0.2,4)</f>
+      <c r="L35" s="38">
+        <f t="shared" ref="L35" si="70">ROUND(G35*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="29">
         <v>6.1550000000000002</v>
       </c>
-      <c r="N35" s="25">
-        <f t="shared" si="60"/>
+      <c r="N35" s="28">
+        <f t="shared" si="65"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="O35" s="50">
-        <f t="shared" ref="O35" si="64">+N35/(G35*21)</f>
+      <c r="O35" s="51">
+        <f t="shared" ref="O35" si="71">+N35/(G35*21)</f>
         <v>8.6580086580086479E-2</v>
       </c>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="51"/>
+      <c r="R35" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-10-BBT-10</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="51"/>
+      <c r="R36" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-10-BBT-11</v>
+      </c>
+      <c r="S36" s="27"/>
+      <c r="AF36">
+        <v>10</v>
+      </c>
+      <c r="AG36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="R37" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-10-BBT-12</v>
+      </c>
+      <c r="S37" s="27"/>
+      <c r="AF37">
+        <v>10</v>
+      </c>
+      <c r="AG37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="43">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="44">
         <v>0.121</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="28">
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="32">
         <v>6.4649999999999999</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="38">
         <f>ROUND(G38*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="29">
         <v>5.93</v>
       </c>
-      <c r="N38" s="25">
-        <f t="shared" si="60"/>
+      <c r="N38" s="28">
+        <f t="shared" si="65"/>
         <v>0.53500000000000014</v>
       </c>
-      <c r="O38" s="52">
-        <f t="shared" ref="O38" si="65">+N38/(G38*21)</f>
+      <c r="O38" s="53">
+        <f t="shared" ref="O38" si="72">+N38/(G38*21)</f>
         <v>0.21054702872884698</v>
       </c>
       <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="53"/>
+      <c r="R38" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-20-BBT-7</v>
+      </c>
+      <c r="S38" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF38">
+        <v>20</v>
+      </c>
+      <c r="AG38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="53"/>
+      <c r="R39" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-20-BBT-8</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="AF39">
+        <v>20</v>
+      </c>
+      <c r="AG39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="54"/>
       <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="R40" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-20-BBT-9</v>
+      </c>
+      <c r="S40" s="27"/>
+      <c r="AF40">
+        <v>20</v>
+      </c>
+      <c r="AG40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="43">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="44">
         <v>0.121</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="28">
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="32">
         <v>6.3150000000000004</v>
       </c>
-      <c r="L41" s="31">
-        <f t="shared" ref="L41:L46" si="66">ROUND(G41*21*0.25,4)</f>
+      <c r="L41" s="38">
+        <f t="shared" ref="L41" si="73">ROUND(G41*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="29">
         <v>5.95</v>
       </c>
-      <c r="N41" s="25">
-        <f t="shared" si="60"/>
+      <c r="N41" s="28">
+        <f t="shared" si="65"/>
         <v>0.36500000000000021</v>
       </c>
-      <c r="O41" s="46">
-        <f t="shared" ref="O41" si="67">+N41/(G41*21)</f>
+      <c r="O41" s="55">
+        <f t="shared" ref="O41" si="74">+N41/(G41*21)</f>
         <v>0.14364423455332556</v>
       </c>
       <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="47"/>
+      <c r="R41" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-1</v>
+      </c>
+      <c r="S41" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF41">
+        <v>15</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="56"/>
       <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="47"/>
+      <c r="R42" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-2</v>
+      </c>
+      <c r="S42" s="27"/>
+      <c r="AF42">
+        <v>15</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="56"/>
       <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="R43" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-3</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="AF43">
+        <v>15</v>
+      </c>
+      <c r="AG43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
@@ -2079,69 +2623,104 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="43">
+      <c r="G44" s="44">
         <v>0.121</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="18">
+      <c r="K44" s="43">
         <v>6.42</v>
       </c>
-      <c r="L44" s="31">
-        <f t="shared" ref="L44:L46" si="68">ROUND(G44*21*0.25,4)</f>
+      <c r="L44" s="38">
+        <f t="shared" ref="L44" si="75">ROUND(G44*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="48">
         <v>5.9850000000000003</v>
       </c>
-      <c r="N44" s="25">
-        <f t="shared" si="60"/>
+      <c r="N44" s="28">
+        <f t="shared" si="65"/>
         <v>0.43499999999999961</v>
       </c>
-      <c r="O44" s="46">
-        <f t="shared" ref="O44" si="69">+N44/(G44*21)</f>
+      <c r="O44" s="55">
+        <f t="shared" ref="O44" si="76">+N44/(G44*21)</f>
         <v>0.1711924439197165</v>
       </c>
       <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="R44" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-4</v>
+      </c>
+      <c r="S44" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF44">
+        <v>15</v>
+      </c>
+      <c r="AG44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="47"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="R45" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-5</v>
+      </c>
+      <c r="S45" s="27"/>
+      <c r="AF45">
+        <v>15</v>
+      </c>
+      <c r="AG45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="45"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="31"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="38"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="47"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R46" s="25" t="str">
+        <f t="shared" si="69"/>
+        <v>CL-15-BBT-6</v>
+      </c>
+      <c r="S46" s="27"/>
+      <c r="AF46">
+        <v>15</v>
+      </c>
+      <c r="AG46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +2759,7 @@
       <c r="P47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="183">
     <mergeCell ref="L29:L31"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="L35:L37"/>
@@ -2349,12 +2928,100 @@
     <mergeCell ref="N8:N10"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="N14:N16"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="S26:S28"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <f>+AVERAGE(Sheet1!O14)</f>
+        <v>2.7155947019279859E-2</v>
+      </c>
+      <c r="B2" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <f>+AVERAGE(Sheet1!O2:O10)</f>
+        <v>5.2887867778547211E-2</v>
+      </c>
+      <c r="B3" s="57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
+        <f>+AVERAGE(Sheet1!O11,Sheet1!O17,Sheet1!O23:O28,Sheet1!O35)</f>
+        <v>0.10444112291367202</v>
+      </c>
+      <c r="B4" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <f>+AVERAGE(Sheet1!O41,Sheet1!O44)</f>
+        <v>0.15741833923652104</v>
+      </c>
+      <c r="B5" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
+        <f>+AVERAGE(Sheet1!O20,Sheet1!O29,Sheet1!O32,Sheet1!O38)</f>
+        <v>0.20767387719619518</v>
+      </c>
+      <c r="B6" s="57">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Label</t>
   </si>
@@ -189,15 +190,43 @@
   <si>
     <t>Number of specimens</t>
   </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Average Diameter</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -368,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -424,6 +453,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,9 +551,7 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,6 +568,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$6:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$6:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.27499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.42500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.45499999999999985</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.48499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B7-4844-B5A7-C6543E551A56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420193064"/>
+        <c:axId val="420188800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420193064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420188800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420188800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420193064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -802,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:O22"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,9 +1870,11 @@
     <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
     <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -883,61 +1929,82 @@
       <c r="S1" s="26" t="s">
         <v>42</v>
       </c>
+      <c r="T1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="35">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="35">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="35">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="39">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="39">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="39">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="39">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="40">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="35">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="43">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="32">
         <v>6.27</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="32">
         <f>+K2-M2</f>
         <v>0.13950000000000085</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="53">
         <f>+N2/(G2*21)</f>
         <v>5.4929761421025472E-2</v>
       </c>
@@ -946,8 +2013,34 @@
         <f>+CONCATENATE("CL-",$AF2,"-T-",$AG2)</f>
         <v>CL-5-T-1</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="31" t="s">
         <v>3</v>
+      </c>
+      <c r="T2">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="V2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="W2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="X2">
+        <v>0.6905</v>
+      </c>
+      <c r="Y2">
+        <v>0.6835</v>
+      </c>
+      <c r="Z2">
+        <f>+AVERAGE(T2:Y2)</f>
+        <v>0.71158333333333346</v>
+      </c>
+      <c r="AA2">
+        <f>0.75*SQRT(1-O2)</f>
+        <v>0.72911042318751229</v>
       </c>
       <c r="AF2">
         <v>5</v>
@@ -957,32 +2050,57 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="32">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="36">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="50"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="1"/>
       <c r="R3" s="25" t="str">
         <f t="shared" ref="R3:R22" si="0">+CONCATENATE("CL-",$AF3,"-T-",$AG3)</f>
         <v>CL-5-T-2</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="U3" s="15"/>
+      <c r="S3" s="31"/>
+      <c r="T3">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Y3">
+        <v>0.7</v>
+      </c>
+      <c r="Z3">
+        <f>+AVERAGE(T3:Y3)</f>
+        <v>0.69566666666666677</v>
+      </c>
+      <c r="AA3">
+        <f>0.75*SQRT(1-O2)</f>
+        <v>0.72911042318751229</v>
+      </c>
       <c r="AF3">
         <v>5</v>
       </c>
@@ -991,31 +2109,57 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="32">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="36">
         <v>6</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="50"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="1"/>
       <c r="R4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-5-T-3</v>
       </c>
-      <c r="S4" s="27"/>
+      <c r="S4" s="31"/>
+      <c r="T4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="W4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="X4">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="Z4">
+        <f>+AVERAGE(T4:Y4)</f>
+        <v>0.70608333333333329</v>
+      </c>
+      <c r="AA4">
+        <f>+AA2</f>
+        <v>0.72911042318751229</v>
+      </c>
       <c r="AF4">
         <v>5</v>
       </c>
@@ -1024,58 +2168,58 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="38">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="36">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="36">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="38">
         <f t="shared" ref="F5" si="1">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="38">
         <f t="shared" ref="G5" si="2">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="38">
         <f t="shared" ref="H5" si="3">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="38">
         <f t="shared" ref="I5" si="4">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="41">
         <f t="shared" ref="J5" si="5">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="36">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="42">
         <f t="shared" ref="L5" si="6">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="33">
         <v>6.2750000000000004</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="32">
         <f t="shared" ref="N5" si="7">+K5-M5</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="53">
         <f t="shared" ref="O5" si="8">+N5/(G5*21)</f>
         <v>4.3537249072934103E-2</v>
       </c>
@@ -1084,7 +2228,7 @@
         <f>+CONCATENATE("CL-",$AF5,"-BBT-",$AG5)</f>
         <v>CL-5-BBT-1</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AF5">
@@ -1095,29 +2239,29 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="1"/>
       <c r="R6" s="25" t="str">
         <f t="shared" ref="R6:R10" si="9">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
         <v>CL-5-BBT-2</v>
       </c>
-      <c r="S6" s="27"/>
+      <c r="S6" s="31"/>
       <c r="AF6">
         <v>5</v>
       </c>
@@ -1126,29 +2270,29 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="17">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="50"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="1"/>
       <c r="R7" s="25" t="str">
         <f t="shared" si="9"/>
         <v>CL-5-BBT-3</v>
       </c>
-      <c r="S7" s="27"/>
+      <c r="S7" s="31"/>
       <c r="AF7">
         <v>5</v>
       </c>
@@ -1157,58 +2301,58 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="38">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="36">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="36">
         <v>6.16</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="38">
         <f t="shared" ref="F8" si="10">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="38">
         <f t="shared" ref="G8" si="11">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="38">
         <f t="shared" ref="H8" si="12">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="38">
         <f t="shared" ref="I8" si="13">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="41">
         <f t="shared" ref="J8" si="14">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="36">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="42">
         <f t="shared" ref="L8" si="15">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="33">
         <v>6.2450000000000001</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="32">
         <f t="shared" ref="N8" si="16">+K8-M8</f>
         <v>0.15249999999999986</v>
       </c>
-      <c r="O8" s="49">
+      <c r="O8" s="53">
         <f t="shared" ref="O8" si="17">+N8/(G8*21)</f>
         <v>6.0196592841682071E-2</v>
       </c>
@@ -1217,7 +2361,7 @@
         <f t="shared" si="9"/>
         <v>CL-5-BBT-4</v>
       </c>
-      <c r="S8" s="27" t="s">
+      <c r="S8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="AF8">
@@ -1228,29 +2372,29 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="50"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="1"/>
       <c r="R9" s="25" t="str">
         <f t="shared" si="9"/>
         <v>CL-5-BBT-5</v>
       </c>
-      <c r="S9" s="27"/>
+      <c r="S9" s="31"/>
       <c r="AF9">
         <v>5</v>
       </c>
@@ -1259,29 +2403,29 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="17">
         <v>0.82</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="50"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="1"/>
       <c r="R10" s="25" t="str">
         <f t="shared" si="9"/>
         <v>CL-5-BBT-6</v>
       </c>
-      <c r="S10" s="27"/>
+      <c r="S10" s="31"/>
       <c r="AF10">
         <v>5</v>
       </c>
@@ -1290,58 +2434,58 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="36">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="36">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="36">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="38">
         <f t="shared" ref="F11" si="18">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="38">
         <f t="shared" ref="G11" si="19">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="38">
         <f t="shared" ref="H11" si="20">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="38">
         <f t="shared" ref="I11" si="21">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="41">
         <f t="shared" ref="J11" si="22">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="36">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="42">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="33">
         <v>6.1050000000000004</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="32">
         <f t="shared" ref="N11" si="23">+K11-M11</f>
         <v>0.26749999999999918</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="55">
         <f t="shared" ref="O11" si="24">+N11/(G11*21)</f>
         <v>0.10548025899702251</v>
       </c>
@@ -1350,8 +2494,34 @@
         <f>+CONCATENATE("CL-",$AF11,"-T-",$AG11)</f>
         <v>CL-10-T-1</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="31" t="s">
         <v>6</v>
+      </c>
+      <c r="T11">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="V11">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="Y11">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="Z11">
+        <f>+AVERAGE(T11:Y11)</f>
+        <v>0.68083333333333329</v>
+      </c>
+      <c r="AA11">
+        <f>0.75*SQRT(1-O11)</f>
+        <v>0.70934290319574977</v>
       </c>
       <c r="AF11">
         <v>10</v>
@@ -1361,29 +2531,55 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="17">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="52"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="1"/>
       <c r="R12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-10-T-2</v>
       </c>
-      <c r="S12" s="27"/>
+      <c r="S12" s="31"/>
+      <c r="T12">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="U12">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="V12">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="W12">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="X12">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="Y12">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="Z12">
+        <f>+AVERAGE(T12:Y12)</f>
+        <v>0.6911666666666666</v>
+      </c>
+      <c r="AA12">
+        <f>0.75*SQRT(1-O11)</f>
+        <v>0.70934290319574977</v>
+      </c>
       <c r="AF12">
         <v>10</v>
       </c>
@@ -1392,29 +2588,55 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="17">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="52"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="1"/>
       <c r="R13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-10-T-3</v>
       </c>
-      <c r="S13" s="27"/>
+      <c r="S13" s="31"/>
+      <c r="T13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="U13">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="V13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="W13">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="X13">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="Z13">
+        <f>+AVERAGE(T13:Y13)</f>
+        <v>0.69041666666666679</v>
+      </c>
+      <c r="AA13">
+        <f>+AA11</f>
+        <v>0.70934290319574977</v>
+      </c>
       <c r="AF13">
         <v>10</v>
       </c>
@@ -1423,57 +2645,57 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="36">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="36">
         <v>51</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="36">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="38">
         <f t="shared" ref="F14" si="25">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="38">
         <f t="shared" ref="G14" si="26">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="38">
         <f t="shared" ref="H14" si="27">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="38">
         <f t="shared" ref="I14" si="28">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="41">
         <f t="shared" ref="J14" si="29">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="36">
         <v>6.3920000000000003</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="42">
         <f t="shared" ref="L14" si="30">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="33">
         <v>6.32</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="32">
         <f t="shared" ref="N14" si="31">+K14-M14</f>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="53">
         <f t="shared" ref="O14" si="32">+N14/(G14*21)</f>
         <v>2.7155947019279859E-2</v>
       </c>
@@ -1482,7 +2704,7 @@
         <f>+CONCATENATE("CL-",$AF14,"-T-",$AG14)</f>
         <v>CL-3-T-1</v>
       </c>
-      <c r="S14" s="27" t="s">
+      <c r="S14" s="31" t="s">
         <v>7</v>
       </c>
       <c r="AF14">
@@ -1493,29 +2715,29 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="50"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="1"/>
       <c r="R15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-3-T-2</v>
       </c>
-      <c r="S15" s="27"/>
+      <c r="S15" s="31"/>
       <c r="AF15">
         <v>3</v>
       </c>
@@ -1524,29 +2746,29 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="17">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="50"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="1"/>
       <c r="R16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-3-T-3</v>
       </c>
-      <c r="S16" s="27"/>
+      <c r="S16" s="31"/>
       <c r="AF16">
         <v>3</v>
       </c>
@@ -1555,57 +2777,57 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="17">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="36">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="36">
         <v>51</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="36">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="38">
         <f t="shared" ref="F17" si="33">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="38">
         <f t="shared" ref="G17" si="34">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="38">
         <f t="shared" ref="H17" si="35">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="38">
         <f t="shared" ref="I17" si="36">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="41">
         <f t="shared" ref="J17" si="37">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="36">
         <v>6.383</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="42">
         <f t="shared" ref="L17" si="38">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="33">
         <v>6.07</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="32">
         <f t="shared" ref="N17" si="39">+K17-M17</f>
         <v>0.31299999999999972</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="55">
         <f t="shared" ref="O17" si="40">+N17/(G17*21)</f>
         <v>0.12408469754209213</v>
       </c>
@@ -1614,7 +2836,7 @@
         <f>+CONCATENATE("CL-",$AF17,"-BBT-",$AG17)</f>
         <v>CL-10-BBT-1</v>
       </c>
-      <c r="S17" s="27" t="s">
+      <c r="S17" s="31" t="s">
         <v>8</v>
       </c>
       <c r="AF17">
@@ -1625,29 +2847,29 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="52"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="56"/>
       <c r="P18" s="1"/>
       <c r="R18" s="25" t="str">
         <f t="shared" ref="R18:R19" si="41">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
         <v>CL-10-BBT-2</v>
       </c>
-      <c r="S18" s="27"/>
+      <c r="S18" s="31"/>
       <c r="AF18">
         <v>10</v>
       </c>
@@ -1656,29 +2878,29 @@
       </c>
     </row>
     <row r="19" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="17">
         <v>0.82</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="52"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="56"/>
       <c r="P19" s="1"/>
       <c r="R19" s="25" t="str">
         <f t="shared" si="41"/>
         <v>CL-10-BBT-3</v>
       </c>
-      <c r="S19" s="27"/>
+      <c r="S19" s="31"/>
       <c r="AF19">
         <v>10</v>
       </c>
@@ -1687,58 +2909,58 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="17">
         <v>0.8</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="36">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="36">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="36">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="38">
         <f t="shared" ref="F20" si="42">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="38">
         <f t="shared" ref="G20" si="43">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="38">
         <f t="shared" ref="H20" si="44">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="38">
         <f t="shared" ref="I20" si="45">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="41">
         <f t="shared" ref="J20" si="46">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="36">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="42">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="33">
         <v>5.8849999999999998</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="32">
         <f t="shared" ref="N20" si="47">+K20-M20</f>
         <v>0.50349999999999984</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="57">
         <f t="shared" ref="O20" si="48">+N20/(G20*21)</f>
         <v>0.1990544225982401</v>
       </c>
@@ -1747,7 +2969,7 @@
         <f>+CONCATENATE("CL-",$AF20,"-T-",$AG20)</f>
         <v>CL-20-T-1</v>
       </c>
-      <c r="S20" s="27" t="s">
+      <c r="S20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="AF20">
@@ -1758,29 +2980,29 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="17">
         <v>0.79</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="54"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="58"/>
       <c r="P21" s="1"/>
       <c r="R21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-20-T-2</v>
       </c>
-      <c r="S21" s="27"/>
+      <c r="S21" s="31"/>
       <c r="AF21">
         <v>20</v>
       </c>
@@ -1789,29 +3011,29 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="17">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="54"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="1"/>
       <c r="R22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-20-T-3</v>
       </c>
-      <c r="S22" s="27"/>
+      <c r="S22" s="31"/>
       <c r="AF22">
         <v>20</v>
       </c>
@@ -1820,58 +3042,58 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="36">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="36">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="36">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="38">
         <f t="shared" ref="F23" si="49">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="38">
         <f t="shared" ref="G23" si="50">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="38">
         <f t="shared" ref="H23" si="51">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="38">
         <f t="shared" ref="I23" si="52">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="41">
         <f t="shared" ref="J23" si="53">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="36">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="42">
         <f t="shared" ref="L23" si="54">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="33">
         <v>6.125</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="32">
         <f t="shared" ref="N23" si="55">+K23-M23</f>
         <v>0.28000000000000025</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="55">
         <f t="shared" ref="O23" si="56">+N23/(G23*21)</f>
         <v>0.1106326508503955</v>
       </c>
@@ -1880,7 +3102,7 @@
         <f>+CONCATENATE("CL-",$AF23,"-BBT-",$AG23)</f>
         <v>CL-10-BBT-4</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="31" t="s">
         <v>9</v>
       </c>
       <c r="AF23">
@@ -1891,29 +3113,29 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="52"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="56"/>
       <c r="P24" s="1"/>
       <c r="R24" s="25" t="str">
         <f t="shared" ref="R24:R25" si="57">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
         <v>CL-10-BBT-5</v>
       </c>
-      <c r="S24" s="27"/>
+      <c r="S24" s="31"/>
       <c r="AF24">
         <v>10</v>
       </c>
@@ -1922,29 +3144,29 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="52"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="1"/>
       <c r="R25" s="25" t="str">
         <f t="shared" si="57"/>
         <v>CL-10-BBT-6</v>
       </c>
-      <c r="S25" s="27"/>
+      <c r="S25" s="31"/>
       <c r="AF25">
         <v>10</v>
       </c>
@@ -1953,57 +3175,57 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="36">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="36">
         <v>51</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="36">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="38">
         <f t="shared" ref="F26" si="58">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="38">
         <f>+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="38">
         <f t="shared" ref="H26" si="59">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="38">
         <f t="shared" ref="I26" si="60">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="41">
         <f t="shared" ref="J26" si="61">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="36">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="42">
         <f t="shared" ref="L26" si="62">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="33">
         <v>6.16</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="32">
         <f t="shared" ref="N26" si="63">+K26-M26</f>
         <v>0.24150000000000027</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="55">
         <f>+N26/(G26*21)</f>
         <v>9.5427920598763538E-2</v>
       </c>
@@ -2012,7 +3234,7 @@
         <f>+CONCATENATE("CL-",$AF26,"-BBT-",$AG26)</f>
         <v>CL-10-BBT-7</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="31" t="s">
         <v>10</v>
       </c>
       <c r="AF26">
@@ -2023,29 +3245,29 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="17">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="52"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="1"/>
       <c r="R27" s="25" t="str">
         <f t="shared" ref="R27:R28" si="64">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
         <v>CL-10-BBT-8</v>
       </c>
-      <c r="S27" s="27"/>
+      <c r="S27" s="31"/>
       <c r="AF27">
         <v>10</v>
       </c>
@@ -2054,29 +3276,29 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="52"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="56"/>
       <c r="P28" s="1"/>
       <c r="R28" s="25" t="str">
         <f t="shared" si="64"/>
         <v>CL-10-BBT-9</v>
       </c>
-      <c r="S28" s="27"/>
+      <c r="S28" s="31"/>
       <c r="AF28">
         <v>10</v>
       </c>
@@ -2085,7 +3307,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="17"/>
@@ -2093,27 +3315,27 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="44">
+      <c r="G29" s="48">
         <v>0.121</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="32">
+      <c r="K29" s="36">
         <v>6.375</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="42">
         <f>ROUND(G29*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="33">
         <v>5.875</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="32">
         <f t="shared" ref="N29:N44" si="65">+K29-M29</f>
         <v>0.5</v>
       </c>
-      <c r="O29" s="53">
+      <c r="O29" s="57">
         <f>+N29/(G29*21)</f>
         <v>0.19677292404565133</v>
       </c>
@@ -2122,8 +3344,31 @@
         <f>+CONCATENATE("CL-",$AF29,"-BBT-",$AG29)</f>
         <v>CL-20-BBT-1</v>
       </c>
-      <c r="S29" s="27" t="s">
+      <c r="S29" s="31" t="s">
         <v>35</v>
+      </c>
+      <c r="T29">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="Z29">
+        <f>+AVERAGE(T29:Y29)</f>
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="AA29">
+        <f>0.75*SQRT(1-O29)</f>
+        <v>0.67217202427973843</v>
+      </c>
+      <c r="AB29">
+        <f>+AA29*1/16</f>
+        <v>4.2010751517483652E-2</v>
+      </c>
+      <c r="AC29" s="61">
+        <f>+AB29/60</f>
+        <v>7.0017919195806088E-4</v>
+      </c>
+      <c r="AD29" s="61">
+        <f>+AC29/10</f>
+        <v>7.001791919580609E-5</v>
       </c>
       <c r="AF29">
         <v>20</v>
@@ -2133,27 +3378,42 @@
       </c>
     </row>
     <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="45"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="54"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="1"/>
       <c r="R30" s="25" t="str">
         <f t="shared" ref="R30:R31" si="66">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
         <v>CL-20-BBT-2</v>
       </c>
-      <c r="S30" s="27"/>
+      <c r="S30" s="31"/>
+      <c r="T30">
+        <v>0.67</v>
+      </c>
+      <c r="Z30">
+        <f>+AVERAGE(T30:Y30)</f>
+        <v>0.67</v>
+      </c>
+      <c r="AA30">
+        <f>0.75*SQRT(1-O29)</f>
+        <v>0.67217202427973843</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ref="AB30:AB31" si="67">+AA30*1/16</f>
+        <v>4.2010751517483652E-2</v>
+      </c>
       <c r="AF30">
         <v>20</v>
       </c>
@@ -2162,27 +3422,42 @@
       </c>
     </row>
     <row r="31" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="46"/>
+      <c r="G31" s="50"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="54"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="1"/>
       <c r="R31" s="25" t="str">
         <f t="shared" si="66"/>
         <v>CL-20-BBT-3</v>
       </c>
-      <c r="S31" s="27"/>
+      <c r="S31" s="31"/>
+      <c r="T31">
+        <v>0.67</v>
+      </c>
+      <c r="Z31">
+        <f>+AVERAGE(T31:Y31)</f>
+        <v>0.67</v>
+      </c>
+      <c r="AA31">
+        <f>+AA29</f>
+        <v>0.67217202427973843</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="67"/>
+        <v>4.2010751517483652E-2</v>
+      </c>
       <c r="AF31">
         <v>20</v>
       </c>
@@ -2191,7 +3466,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="17"/>
@@ -2199,28 +3474,28 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="44">
+      <c r="G32" s="48">
         <v>0.121</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="32">
+      <c r="K32" s="36">
         <v>6.4349999999999996</v>
       </c>
-      <c r="L32" s="38">
-        <f t="shared" ref="L32" si="67">ROUND(G32*21*0.2,4)</f>
+      <c r="L32" s="42">
+        <f t="shared" ref="L32" si="68">ROUND(G32*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="33">
         <v>5.8650000000000002</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="32">
         <f t="shared" si="65"/>
         <v>0.5699999999999994</v>
       </c>
-      <c r="O32" s="53">
-        <f t="shared" ref="O32" si="68">+N32/(G32*21)</f>
+      <c r="O32" s="57">
+        <f t="shared" ref="O32" si="69">+N32/(G32*21)</f>
         <v>0.22432113341204227</v>
       </c>
       <c r="P32" s="1"/>
@@ -2228,7 +3503,7 @@
         <f>+CONCATENATE("CL-",$AF32,"-BBT-",$AG32)</f>
         <v>CL-20-BBT-4</v>
       </c>
-      <c r="S32" s="27" t="s">
+      <c r="S32" s="31" t="s">
         <v>36</v>
       </c>
       <c r="AF32">
@@ -2239,27 +3514,27 @@
       </c>
     </row>
     <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="45"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="54"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="1"/>
       <c r="R33" s="25" t="str">
-        <f t="shared" ref="R33:R46" si="69">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
+        <f t="shared" ref="R33:R46" si="70">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
         <v>CL-20-BBT-5</v>
       </c>
-      <c r="S33" s="27"/>
+      <c r="S33" s="31"/>
       <c r="AF33">
         <v>20</v>
       </c>
@@ -2268,27 +3543,27 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="46"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="54"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="1"/>
       <c r="R34" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-20-BBT-6</v>
       </c>
-      <c r="S34" s="27"/>
+      <c r="S34" s="31"/>
       <c r="AF34">
         <v>20</v>
       </c>
@@ -2297,7 +3572,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="17"/>
@@ -2305,36 +3580,36 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="44">
+      <c r="G35" s="48">
         <v>0.121</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="32">
+      <c r="K35" s="36">
         <v>6.375</v>
       </c>
-      <c r="L35" s="38">
-        <f t="shared" ref="L35" si="70">ROUND(G35*21*0.2,4)</f>
+      <c r="L35" s="42">
+        <f t="shared" ref="L35" si="71">ROUND(G35*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="33">
         <v>6.1550000000000002</v>
       </c>
-      <c r="N35" s="28">
+      <c r="N35" s="32">
         <f t="shared" si="65"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="O35" s="51">
-        <f t="shared" ref="O35" si="71">+N35/(G35*21)</f>
+      <c r="O35" s="55">
+        <f t="shared" ref="O35" si="72">+N35/(G35*21)</f>
         <v>8.6580086580086479E-2</v>
       </c>
       <c r="P35" s="1"/>
       <c r="R35" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-10-BBT-10</v>
       </c>
-      <c r="S35" s="27" t="s">
+      <c r="S35" s="31" t="s">
         <v>37</v>
       </c>
       <c r="AF35">
@@ -2345,27 +3620,27 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="45"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="52"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="56"/>
       <c r="P36" s="1"/>
       <c r="R36" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-10-BBT-11</v>
       </c>
-      <c r="S36" s="27"/>
+      <c r="S36" s="31"/>
       <c r="AF36">
         <v>10</v>
       </c>
@@ -2374,27 +3649,27 @@
       </c>
     </row>
     <row r="37" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="52"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="56"/>
       <c r="P37" s="1"/>
       <c r="R37" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-10-BBT-12</v>
       </c>
-      <c r="S37" s="27"/>
+      <c r="S37" s="31"/>
       <c r="AF37">
         <v>10</v>
       </c>
@@ -2403,7 +3678,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="17"/>
@@ -2411,36 +3686,36 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="44">
+      <c r="G38" s="48">
         <v>0.121</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="32">
+      <c r="K38" s="36">
         <v>6.4649999999999999</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="42">
         <f>ROUND(G38*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="33">
         <v>5.93</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="32">
         <f t="shared" si="65"/>
         <v>0.53500000000000014</v>
       </c>
-      <c r="O38" s="53">
-        <f t="shared" ref="O38" si="72">+N38/(G38*21)</f>
+      <c r="O38" s="57">
+        <f t="shared" ref="O38" si="73">+N38/(G38*21)</f>
         <v>0.21054702872884698</v>
       </c>
       <c r="P38" s="1"/>
       <c r="R38" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-20-BBT-7</v>
       </c>
-      <c r="S38" s="27" t="s">
+      <c r="S38" s="31" t="s">
         <v>38</v>
       </c>
       <c r="AF38">
@@ -2451,27 +3726,27 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="45"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="54"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="58"/>
       <c r="P39" s="1"/>
       <c r="R39" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-20-BBT-8</v>
       </c>
-      <c r="S39" s="27"/>
+      <c r="S39" s="31"/>
       <c r="AF39">
         <v>20</v>
       </c>
@@ -2480,27 +3755,27 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="46"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="54"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="R40" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-20-BBT-9</v>
       </c>
-      <c r="S40" s="27"/>
+      <c r="S40" s="31"/>
       <c r="AF40">
         <v>20</v>
       </c>
@@ -2509,7 +3784,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="17"/>
@@ -2517,36 +3792,36 @@
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="44">
+      <c r="G41" s="48">
         <v>0.121</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="32">
+      <c r="K41" s="36">
         <v>6.3150000000000004</v>
       </c>
-      <c r="L41" s="38">
-        <f t="shared" ref="L41" si="73">ROUND(G41*21*0.25,4)</f>
+      <c r="L41" s="42">
+        <f t="shared" ref="L41" si="74">ROUND(G41*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="33">
         <v>5.95</v>
       </c>
-      <c r="N41" s="28">
+      <c r="N41" s="32">
         <f t="shared" si="65"/>
         <v>0.36500000000000021</v>
       </c>
-      <c r="O41" s="55">
-        <f t="shared" ref="O41" si="74">+N41/(G41*21)</f>
+      <c r="O41" s="59">
+        <f t="shared" ref="O41" si="75">+N41/(G41*21)</f>
         <v>0.14364423455332556</v>
       </c>
       <c r="P41" s="1"/>
       <c r="R41" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-1</v>
       </c>
-      <c r="S41" s="27" t="s">
+      <c r="S41" s="31" t="s">
         <v>39</v>
       </c>
       <c r="AF41">
@@ -2557,27 +3832,27 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="45"/>
+      <c r="G42" s="49"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="56"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="60"/>
       <c r="P42" s="1"/>
       <c r="R42" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-2</v>
       </c>
-      <c r="S42" s="27"/>
+      <c r="S42" s="31"/>
       <c r="AF42">
         <v>15</v>
       </c>
@@ -2586,27 +3861,27 @@
       </c>
     </row>
     <row r="43" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="46"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="56"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="60"/>
       <c r="P43" s="1"/>
       <c r="R43" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-3</v>
       </c>
-      <c r="S43" s="27"/>
+      <c r="S43" s="31"/>
       <c r="AF43">
         <v>15</v>
       </c>
@@ -2615,7 +3890,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
@@ -2623,36 +3898,36 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="44">
+      <c r="G44" s="48">
         <v>0.121</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="43">
+      <c r="K44" s="47">
         <v>6.42</v>
       </c>
-      <c r="L44" s="38">
-        <f t="shared" ref="L44" si="75">ROUND(G44*21*0.25,4)</f>
+      <c r="L44" s="42">
+        <f t="shared" ref="L44" si="76">ROUND(G44*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M44" s="48">
+      <c r="M44" s="52">
         <v>5.9850000000000003</v>
       </c>
-      <c r="N44" s="28">
+      <c r="N44" s="32">
         <f t="shared" si="65"/>
         <v>0.43499999999999961</v>
       </c>
-      <c r="O44" s="55">
-        <f t="shared" ref="O44" si="76">+N44/(G44*21)</f>
+      <c r="O44" s="59">
+        <f t="shared" ref="O44" si="77">+N44/(G44*21)</f>
         <v>0.1711924439197165</v>
       </c>
       <c r="P44" s="1"/>
       <c r="R44" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-4</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S44" s="31" t="s">
         <v>40</v>
       </c>
       <c r="AF44">
@@ -2663,27 +3938,27 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="45"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="56"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="60"/>
       <c r="P45" s="1"/>
       <c r="R45" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-5</v>
       </c>
-      <c r="S45" s="27"/>
+      <c r="S45" s="31"/>
       <c r="AF45">
         <v>15</v>
       </c>
@@ -2692,27 +3967,27 @@
       </c>
     </row>
     <row r="46" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="46"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="38"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="42"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="56"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="60"/>
       <c r="P46" s="1"/>
       <c r="R46" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>CL-15-BBT-6</v>
       </c>
-      <c r="S46" s="27"/>
+      <c r="S46" s="31"/>
       <c r="AF46">
         <v>15</v>
       </c>
@@ -2951,10 +4226,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>SQRT(1-D6/100)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>+(1-0.005*D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E30" si="0">SQRT(1-D7/100)</f>
+        <v>0.97467943448089633</v>
+      </c>
+      <c r="F7">
+        <f>+(1-0.014*D7)</f>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.94868329805051377</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F10" si="1">+(1-0.014*D8)</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.92195444572928875</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.89442719099991586</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="F11">
+        <f>+(1-0.014*D11)</f>
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.83666002653407556</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F30" si="2">+(1-0.015*D12)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.80622577482985502</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.74161984870956632</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.32500000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.67082039324993692</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.17500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.59160797830996159</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.54772255750516619</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995787</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.3872983346207417</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-0.27499999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.31622776601683789</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>-0.34999999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.22360679774997907</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>-0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>-0.43999999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>97</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.17320508075688781</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>-0.45499999999999985</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>98</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.14142135623730956</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>-0.48499999999999988</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,55 +4593,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="28">
         <f>+AVERAGE(Sheet1!O14)</f>
         <v>2.7155947019279859E-2</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="28">
         <f>+AVERAGE(Sheet1!O2:O10)</f>
         <v>5.2887867778547211E-2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="28">
         <f>+AVERAGE(Sheet1!O11,Sheet1!O17,Sheet1!O23:O28,Sheet1!O35)</f>
         <v>0.10444112291367202</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="58">
+      <c r="A5" s="28">
         <f>+AVERAGE(Sheet1!O41,Sheet1!O44)</f>
         <v>0.15741833923652104</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="28">
         <f>+AVERAGE(Sheet1!O20,Sheet1!O29,Sheet1!O32,Sheet1!O38)</f>
         <v>0.20767387719619518</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="27">
         <v>12</v>
       </c>
     </row>
@@ -3021,7 +4650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>Label</t>
   </si>
@@ -217,16 +217,62 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>CL5-T-1_3</t>
+  </si>
+  <si>
+    <t>CL5-BBT-1_3</t>
+  </si>
+  <si>
+    <t>CL5-BBT-4-6</t>
+  </si>
+  <si>
+    <t>CL10-T-1_3</t>
+  </si>
+  <si>
+    <t>CL10-BBT-1_3</t>
+  </si>
+  <si>
+    <t>CL10-BBT-4-6</t>
+  </si>
+  <si>
+    <t>CL20-T-1_3</t>
+  </si>
+  <si>
+    <t>CL20-BBT-1_3</t>
+  </si>
+  <si>
+    <t>CL20-BBT-4-6</t>
+  </si>
+  <si>
+    <t>CL15-BBT-1_3</t>
+  </si>
+  <si>
+    <t>CL15-BBT-4-6</t>
+  </si>
+  <si>
+    <t>CL (%)</t>
+  </si>
+  <si>
+    <t>Initial mass (g)</t>
+  </si>
+  <si>
+    <t>Final mass (g)</t>
+  </si>
+  <si>
+    <t>Mass loss (g)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -397,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,71 +507,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,7 +535,71 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1844,37 +1892,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT2:AT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.41796875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="18.68359375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.83984375" customWidth="1"/>
+    <col min="12" max="12" width="22.68359375" customWidth="1"/>
+    <col min="13" max="13" width="30.26171875" customWidth="1"/>
+    <col min="14" max="14" width="20.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83984375" customWidth="1"/>
+    <col min="16" max="16" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26171875" customWidth="1"/>
+    <col min="19" max="19" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.83984375" customWidth="1"/>
+    <col min="30" max="30" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="33.299999999999997" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1950,61 +2003,91 @@
       <c r="Z1" s="30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="55">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="55">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="55">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="59">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="59">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="59">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="59">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="56">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="55">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="54">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="41">
         <v>6.27</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="41">
         <f>+K2-M2</f>
         <v>0.13950000000000085</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="33">
         <f>+N2/(G2*21)</f>
         <v>5.4929761421025472E-2</v>
       </c>
@@ -2013,7 +2096,7 @@
         <f>+CONCATENATE("CL-",$AF2,"-T-",$AG2)</f>
         <v>CL-5-T-1</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="T2">
@@ -2048,33 +2131,75 @@
       <c r="AG2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="AI2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="62">
+        <f>453.5924*K2</f>
+        <v>2907.3004878000002</v>
+      </c>
+      <c r="AK2" s="62">
+        <f>453.5924*M2</f>
+        <v>2844.0243479999999</v>
+      </c>
+      <c r="AL2" s="62">
+        <f>+AJ2-AK2</f>
+        <v>63.276139800000237</v>
+      </c>
+      <c r="AM2" s="63">
+        <f>+AL2/$AO$2</f>
+        <v>3.8429752066115853E-2</v>
+      </c>
+      <c r="AO2">
+        <f>0.121*30*453.5924</f>
+        <v>1646.5404119999998</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ2" s="62">
+        <f>+AJ2-$AO$2</f>
+        <v>1260.7600758000003</v>
+      </c>
+      <c r="AR2" s="62">
+        <f>+AK2-$AO$2</f>
+        <v>1197.4839360000001</v>
+      </c>
+      <c r="AS2" s="62">
+        <f>+AQ2-AR2</f>
+        <v>63.276139800000237</v>
+      </c>
+      <c r="AT2" s="63">
+        <f>+AS2/AQ2</f>
+        <v>5.0188882892606757E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45"/>
       <c r="B3" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="36">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="48">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="54"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="1"/>
       <c r="R3" s="25" t="str">
         <f t="shared" ref="R3:R22" si="0">+CONCATENATE("CL-",$AF3,"-T-",$AG3)</f>
         <v>CL-5-T-2</v>
       </c>
-      <c r="S3" s="31"/>
+      <c r="S3" s="61"/>
       <c r="T3">
         <v>0.72799999999999998</v>
       </c>
@@ -2107,33 +2232,71 @@
       <c r="AG3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
+      <c r="AI3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="62">
+        <f>453.5924*K5</f>
+        <v>2896.1874739999998</v>
+      </c>
+      <c r="AK3" s="62">
+        <f>453.5924*M5</f>
+        <v>2846.2923100000003</v>
+      </c>
+      <c r="AL3" s="62">
+        <f>+AJ3-AK3</f>
+        <v>49.895163999999568</v>
+      </c>
+      <c r="AM3" s="63">
+        <f t="shared" ref="AM3:AM12" si="1">+AL3/$AO$2</f>
+        <v>3.0303030303030044E-2</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ3" s="62">
+        <f t="shared" ref="AQ3:AR12" si="2">+AJ3-$AO$2</f>
+        <v>1249.647062</v>
+      </c>
+      <c r="AR3" s="62">
+        <f t="shared" si="2"/>
+        <v>1199.7518980000004</v>
+      </c>
+      <c r="AS3" s="62">
+        <f>+AQ3-AR3</f>
+        <v>49.895163999999568</v>
+      </c>
+      <c r="AT3" s="63">
+        <f t="shared" ref="AT3:AT12" si="3">+AS3/AQ3</f>
+        <v>3.9927404718692938E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="45"/>
       <c r="B4" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="36">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="48">
         <v>6</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="54"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="1"/>
       <c r="R4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-5-T-3</v>
       </c>
-      <c r="S4" s="31"/>
+      <c r="S4" s="61"/>
       <c r="T4">
         <v>0.72899999999999998</v>
       </c>
@@ -2166,61 +2329,99 @@
       <c r="AG4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="AI4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="62">
+        <f>453.5924*K8</f>
+        <v>2901.857379</v>
+      </c>
+      <c r="AK4" s="62">
+        <f>453.5924*M8</f>
+        <v>2839.4884239999997</v>
+      </c>
+      <c r="AL4" s="62">
+        <f>+AJ4-AK4</f>
+        <v>62.368955000000369</v>
+      </c>
+      <c r="AM4" s="63">
+        <f t="shared" si="1"/>
+        <v>3.7878787878788109E-2</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="62">
+        <f t="shared" si="2"/>
+        <v>1255.3169670000002</v>
+      </c>
+      <c r="AR4" s="62">
+        <f t="shared" si="2"/>
+        <v>1192.9480119999998</v>
+      </c>
+      <c r="AS4" s="62">
+        <f>+AQ4-AR4</f>
+        <v>62.368955000000369</v>
+      </c>
+      <c r="AT4" s="63">
+        <f t="shared" si="3"/>
+        <v>4.9683830171635336E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="58">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="48">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="48">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="38">
-        <f t="shared" ref="F5" si="1">+G5*12</f>
+      <c r="F5" s="58">
+        <f t="shared" ref="F5" si="4">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="38">
-        <f t="shared" ref="G5" si="2">+E5/D5</f>
+      <c r="G5" s="58">
+        <f t="shared" ref="G5" si="5">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="38">
-        <f t="shared" ref="H5" si="3">0.25*PI()*C5^2*D5</f>
+      <c r="H5" s="58">
+        <f t="shared" ref="H5" si="6">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="38">
-        <f t="shared" ref="I5" si="4">+E5/H5</f>
+      <c r="I5" s="58">
+        <f t="shared" ref="I5" si="7">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="41">
-        <f t="shared" ref="J5" si="5">+I5*12^3</f>
+      <c r="J5" s="57">
+        <f t="shared" ref="J5" si="8">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="48">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="42">
-        <f t="shared" ref="L5" si="6">ROUND(G5*21*0.05,4)</f>
+      <c r="L5" s="32">
+        <f t="shared" ref="L5" si="9">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="42">
         <v>6.2750000000000004</v>
       </c>
-      <c r="N5" s="32">
-        <f t="shared" ref="N5" si="7">+K5-M5</f>
+      <c r="N5" s="41">
+        <f t="shared" ref="N5" si="10">+K5-M5</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="O5" s="53">
-        <f t="shared" ref="O5" si="8">+N5/(G5*21)</f>
+      <c r="O5" s="33">
+        <f t="shared" ref="O5" si="11">+N5/(G5*21)</f>
         <v>4.3537249072934103E-2</v>
       </c>
       <c r="P5" s="1"/>
@@ -2228,7 +2429,7 @@
         <f>+CONCATENATE("CL-",$AF5,"-BBT-",$AG5)</f>
         <v>CL-5-BBT-1</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="61" t="s">
         <v>4</v>
       </c>
       <c r="AF5">
@@ -2237,131 +2438,245 @@
       <c r="AG5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="AI5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="62">
+        <f>453.5924*K11</f>
+        <v>2890.5175689999996</v>
+      </c>
+      <c r="AK5" s="62">
+        <f>453.5924*M11</f>
+        <v>2769.1816020000001</v>
+      </c>
+      <c r="AL5" s="62">
+        <f>+AJ5-AK5</f>
+        <v>121.33596699999953</v>
+      </c>
+      <c r="AM5" s="63">
+        <f t="shared" si="1"/>
+        <v>7.3691460055096136E-2</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ5" s="62">
+        <f t="shared" si="2"/>
+        <v>1243.9771569999998</v>
+      </c>
+      <c r="AR5" s="62">
+        <f t="shared" si="2"/>
+        <v>1122.6411900000003</v>
+      </c>
+      <c r="AS5" s="62">
+        <f>+AQ5-AR5</f>
+        <v>121.33596699999953</v>
+      </c>
+      <c r="AT5" s="63">
+        <f t="shared" si="3"/>
+        <v>9.7538742023700636E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="45"/>
       <c r="B6" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="54"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="1"/>
       <c r="R6" s="25" t="str">
-        <f t="shared" ref="R6:R10" si="9">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
+        <f t="shared" ref="R6:R10" si="12">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
         <v>CL-5-BBT-2</v>
       </c>
-      <c r="S6" s="31"/>
+      <c r="S6" s="61"/>
       <c r="AF6">
         <v>5</v>
       </c>
       <c r="AG6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" s="62">
+        <f>453.5924*K17</f>
+        <v>2895.2802892</v>
+      </c>
+      <c r="AK6" s="62">
+        <f>453.5924*M17</f>
+        <v>2778.2534500000002</v>
+      </c>
+      <c r="AL6" s="62">
+        <f>+AJ6-AK6</f>
+        <v>117.02683919999981</v>
+      </c>
+      <c r="AM6" s="63">
+        <f t="shared" si="1"/>
+        <v>7.107438016528915E-2</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ6" s="62">
+        <f t="shared" si="2"/>
+        <v>1248.7398772000001</v>
+      </c>
+      <c r="AR6" s="62">
+        <f t="shared" si="2"/>
+        <v>1131.7130380000003</v>
+      </c>
+      <c r="AS6" s="62">
+        <f>+AQ6-AR6</f>
+        <v>117.02683919999981</v>
+      </c>
+      <c r="AT6" s="63">
+        <f t="shared" si="3"/>
+        <v>9.3715946240464781E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="45"/>
       <c r="B7" s="17">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="34"/>
       <c r="P7" s="1"/>
       <c r="R7" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CL-5-BBT-3</v>
       </c>
-      <c r="S7" s="31"/>
+      <c r="S7" s="61"/>
       <c r="AF7">
         <v>5</v>
       </c>
       <c r="AG7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="AI7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="62">
+        <f>453.5924*K23</f>
+        <v>2905.2593219999999</v>
+      </c>
+      <c r="AK7" s="62">
+        <f>453.5924*M23</f>
+        <v>2789.5932600000001</v>
+      </c>
+      <c r="AL7" s="62">
+        <f>+AJ7-AK7</f>
+        <v>115.66606199999978</v>
+      </c>
+      <c r="AM7" s="63">
+        <f t="shared" si="1"/>
+        <v>7.0247933884297398E-2</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ7" s="62">
+        <f t="shared" si="2"/>
+        <v>1258.7189100000001</v>
+      </c>
+      <c r="AR7" s="62">
+        <f t="shared" si="2"/>
+        <v>1143.0528480000003</v>
+      </c>
+      <c r="AS7" s="62">
+        <f>+AQ7-AR7</f>
+        <v>115.66606199999978</v>
+      </c>
+      <c r="AT7" s="63">
+        <f t="shared" si="3"/>
+        <v>9.1891891891891717E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="58">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="48">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="48">
         <v>6.16</v>
       </c>
-      <c r="F8" s="38">
-        <f t="shared" ref="F8" si="10">+G8*12</f>
+      <c r="F8" s="58">
+        <f t="shared" ref="F8" si="13">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="38">
-        <f t="shared" ref="G8" si="11">+E8/D8</f>
+      <c r="G8" s="58">
+        <f t="shared" ref="G8" si="14">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="38">
-        <f t="shared" ref="H8" si="12">0.25*PI()*C8^2*D8</f>
+      <c r="H8" s="58">
+        <f t="shared" ref="H8" si="15">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="38">
-        <f t="shared" ref="I8" si="13">+E8/H8</f>
+      <c r="I8" s="58">
+        <f t="shared" ref="I8" si="16">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="41">
-        <f t="shared" ref="J8" si="14">+I8*12^3</f>
+      <c r="J8" s="57">
+        <f t="shared" ref="J8" si="17">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="48">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="42">
-        <f t="shared" ref="L8" si="15">ROUND(G8*21*0.05,4)</f>
+      <c r="L8" s="32">
+        <f t="shared" ref="L8" si="18">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="33">
-        <v>6.2450000000000001</v>
-      </c>
-      <c r="N8" s="32">
-        <f t="shared" ref="N8" si="16">+K8-M8</f>
-        <v>0.15249999999999986</v>
-      </c>
-      <c r="O8" s="53">
-        <f t="shared" ref="O8" si="17">+N8/(G8*21)</f>
-        <v>6.0196592841682071E-2</v>
+      <c r="M8" s="42">
+        <v>6.26</v>
+      </c>
+      <c r="N8" s="41">
+        <f t="shared" ref="N8" si="19">+K8-M8</f>
+        <v>0.13750000000000018</v>
+      </c>
+      <c r="O8" s="33">
+        <f t="shared" ref="O8" si="20">+N8/(G8*21)</f>
+        <v>5.4275616496598705E-2</v>
       </c>
       <c r="P8" s="1"/>
       <c r="R8" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CL-5-BBT-4</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="AF8">
@@ -2370,123 +2685,237 @@
       <c r="AG8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="AI8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ8" s="62">
+        <f>453.5924*K41</f>
+        <v>2864.4360060000004</v>
+      </c>
+      <c r="AK8" s="62">
+        <f>453.5924*M41</f>
+        <v>2698.8747800000001</v>
+      </c>
+      <c r="AL8" s="62">
+        <f>+AJ8-AK8</f>
+        <v>165.56122600000026</v>
+      </c>
+      <c r="AM8" s="63">
+        <f t="shared" si="1"/>
+        <v>0.10055096418732799</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ8" s="62">
+        <f t="shared" si="2"/>
+        <v>1217.8955940000005</v>
+      </c>
+      <c r="AR8" s="62">
+        <f t="shared" si="2"/>
+        <v>1052.3343680000003</v>
+      </c>
+      <c r="AS8" s="62">
+        <f>+AQ8-AR8</f>
+        <v>165.56122600000026</v>
+      </c>
+      <c r="AT8" s="63">
+        <f t="shared" si="3"/>
+        <v>0.13594040968342661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="45"/>
       <c r="B9" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="54"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="34"/>
       <c r="P9" s="1"/>
       <c r="R9" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CL-5-BBT-5</v>
       </c>
-      <c r="S9" s="31"/>
+      <c r="S9" s="61"/>
       <c r="AF9">
         <v>5</v>
       </c>
       <c r="AG9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="AI9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" s="62">
+        <f>453.5924*K44</f>
+        <v>2912.063208</v>
+      </c>
+      <c r="AK9" s="62">
+        <f>453.5924*M44</f>
+        <v>2741.966058</v>
+      </c>
+      <c r="AL9" s="62">
+        <f>+AJ9-AK9</f>
+        <v>170.09715000000006</v>
+      </c>
+      <c r="AM9" s="63">
+        <f t="shared" si="1"/>
+        <v>0.10330578512396699</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ9" s="62">
+        <f t="shared" si="2"/>
+        <v>1265.5227960000002</v>
+      </c>
+      <c r="AR9" s="62">
+        <f>+AK9-$AO$2</f>
+        <v>1095.4256460000001</v>
+      </c>
+      <c r="AS9" s="62">
+        <f>+AQ9-AR9</f>
+        <v>170.09715000000006</v>
+      </c>
+      <c r="AT9" s="63">
+        <f>+AS9/AQ9</f>
+        <v>0.13440860215053765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="45"/>
       <c r="B10" s="17">
         <v>0.82</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="54"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="1"/>
       <c r="R10" s="25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>CL-5-BBT-6</v>
       </c>
-      <c r="S10" s="31"/>
+      <c r="S10" s="61"/>
       <c r="AF10">
         <v>5</v>
       </c>
       <c r="AG10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="AI10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ10" s="62">
+        <f>453.5924*K20</f>
+        <v>2897.7750473999999</v>
+      </c>
+      <c r="AK10" s="62">
+        <f>453.5924*M20</f>
+        <v>2669.3912740000001</v>
+      </c>
+      <c r="AL10" s="62">
+        <f>+AJ10-AK10</f>
+        <v>228.38377339999988</v>
+      </c>
+      <c r="AM10" s="63">
+        <f t="shared" si="1"/>
+        <v>0.13870523415977956</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ10" s="62">
+        <f t="shared" si="2"/>
+        <v>1251.2346354000001</v>
+      </c>
+      <c r="AR10" s="62">
+        <f t="shared" si="2"/>
+        <v>1022.8508620000002</v>
+      </c>
+      <c r="AS10" s="62">
+        <f>+AQ10-AR10</f>
+        <v>228.38377339999988</v>
+      </c>
+      <c r="AT10" s="63">
+        <f t="shared" si="3"/>
+        <v>0.18252673554467996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="48">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="48">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="48">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="38">
-        <f t="shared" ref="F11" si="18">+G11*12</f>
+      <c r="F11" s="58">
+        <f t="shared" ref="F11" si="21">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="38">
-        <f t="shared" ref="G11" si="19">+E11/D11</f>
+      <c r="G11" s="58">
+        <f t="shared" ref="G11" si="22">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="38">
-        <f t="shared" ref="H11" si="20">0.25*PI()*C11^2*D11</f>
+      <c r="H11" s="58">
+        <f t="shared" ref="H11" si="23">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="38">
-        <f t="shared" ref="I11" si="21">+E11/H11</f>
+      <c r="I11" s="58">
+        <f t="shared" ref="I11" si="24">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="41">
-        <f t="shared" ref="J11" si="22">+I11*12^3</f>
+      <c r="J11" s="57">
+        <f t="shared" ref="J11" si="25">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="48">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="32">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="42">
         <v>6.1050000000000004</v>
       </c>
-      <c r="N11" s="32">
-        <f t="shared" ref="N11" si="23">+K11-M11</f>
+      <c r="N11" s="41">
+        <f t="shared" ref="N11" si="26">+K11-M11</f>
         <v>0.26749999999999918</v>
       </c>
-      <c r="O11" s="55">
-        <f t="shared" ref="O11" si="24">+N11/(G11*21)</f>
+      <c r="O11" s="35">
+        <f t="shared" ref="O11" si="27">+N11/(G11*21)</f>
         <v>0.10548025899702251</v>
       </c>
       <c r="P11" s="1"/>
@@ -2494,7 +2923,7 @@
         <f>+CONCATENATE("CL-",$AF11,"-T-",$AG11)</f>
         <v>CL-10-T-1</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="61" t="s">
         <v>6</v>
       </c>
       <c r="T11">
@@ -2529,31 +2958,69 @@
       <c r="AG11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" s="62">
+        <f>453.5924*K29</f>
+        <v>2891.65155</v>
+      </c>
+      <c r="AK11" s="62">
+        <f>453.5924*M29</f>
+        <v>2664.8553499999998</v>
+      </c>
+      <c r="AL11" s="62">
+        <f>+AJ11-AK11</f>
+        <v>226.79620000000023</v>
+      </c>
+      <c r="AM11" s="63">
+        <f t="shared" si="1"/>
+        <v>0.13774104683195607</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ11" s="62">
+        <f t="shared" si="2"/>
+        <v>1245.1111380000002</v>
+      </c>
+      <c r="AR11" s="62">
+        <f t="shared" si="2"/>
+        <v>1018.314938</v>
+      </c>
+      <c r="AS11" s="62">
+        <f>+AQ11-AR11</f>
+        <v>226.79620000000023</v>
+      </c>
+      <c r="AT11" s="63">
+        <f t="shared" si="3"/>
+        <v>0.18214936247723149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="45"/>
       <c r="B12" s="17">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="56"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="1"/>
       <c r="R12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-10-T-2</v>
       </c>
-      <c r="S12" s="31"/>
+      <c r="S12" s="61"/>
       <c r="T12">
         <v>0.67700000000000005</v>
       </c>
@@ -2586,31 +3053,69 @@
       <c r="AG12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" s="62">
+        <f>453.5924*K32</f>
+        <v>2918.8670939999997</v>
+      </c>
+      <c r="AK12" s="62">
+        <f>453.5924*M32</f>
+        <v>2660.319426</v>
+      </c>
+      <c r="AL12" s="62">
+        <f>+AJ12-AK12</f>
+        <v>258.5476679999997</v>
+      </c>
+      <c r="AM12" s="63">
+        <f t="shared" si="1"/>
+        <v>0.15702479338842959</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ12" s="62">
+        <f t="shared" si="2"/>
+        <v>1272.3266819999999</v>
+      </c>
+      <c r="AR12" s="62">
+        <f t="shared" si="2"/>
+        <v>1013.7790140000002</v>
+      </c>
+      <c r="AS12" s="62">
+        <f>+AQ12-AR12</f>
+        <v>258.5476679999997</v>
+      </c>
+      <c r="AT12" s="63">
+        <f t="shared" si="3"/>
+        <v>0.20320855614973241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="45"/>
       <c r="B13" s="17">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="56"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="1"/>
       <c r="R13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-10-T-3</v>
       </c>
-      <c r="S13" s="31"/>
+      <c r="S13" s="61"/>
       <c r="T13">
         <v>0.69499999999999995</v>
       </c>
@@ -2644,59 +3149,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="48">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="48">
         <v>51</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="48">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="38">
-        <f t="shared" ref="F14" si="25">+G14*12</f>
+      <c r="F14" s="58">
+        <f t="shared" ref="F14" si="28">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="38">
-        <f t="shared" ref="G14" si="26">+E14/D14</f>
+      <c r="G14" s="58">
+        <f t="shared" ref="G14" si="29">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="38">
-        <f t="shared" ref="H14" si="27">0.25*PI()*C14^2*D14</f>
+      <c r="H14" s="58">
+        <f t="shared" ref="H14" si="30">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="38">
-        <f t="shared" ref="I14" si="28">+E14/H14</f>
+      <c r="I14" s="58">
+        <f t="shared" ref="I14" si="31">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="41">
-        <f t="shared" ref="J14" si="29">+I14*12^3</f>
+      <c r="J14" s="57">
+        <f t="shared" ref="J14" si="32">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="48">
         <v>6.3920000000000003</v>
       </c>
-      <c r="L14" s="42">
-        <f t="shared" ref="L14" si="30">ROUND(G14*21*0.1,4)</f>
+      <c r="L14" s="32">
+        <f t="shared" ref="L14" si="33">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="42">
         <v>6.32</v>
       </c>
-      <c r="N14" s="32">
-        <f t="shared" ref="N14" si="31">+K14-M14</f>
+      <c r="N14" s="41">
+        <f t="shared" ref="N14" si="34">+K14-M14</f>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="O14" s="53">
-        <f t="shared" ref="O14" si="32">+N14/(G14*21)</f>
+      <c r="O14" s="33">
+        <f t="shared" ref="O14" si="35">+N14/(G14*21)</f>
         <v>2.7155947019279859E-2</v>
       </c>
       <c r="P14" s="1"/>
@@ -2704,7 +3209,7 @@
         <f>+CONCATENATE("CL-",$AF14,"-T-",$AG14)</f>
         <v>CL-3-T-1</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="S14" s="61" t="s">
         <v>7</v>
       </c>
       <c r="AF14">
@@ -2714,30 +3219,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="45"/>
       <c r="B15" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="54"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="34"/>
       <c r="P15" s="1"/>
       <c r="R15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-3-T-2</v>
       </c>
-      <c r="S15" s="31"/>
+      <c r="S15" s="61"/>
       <c r="AF15">
         <v>3</v>
       </c>
@@ -2745,30 +3250,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="45"/>
       <c r="B16" s="17">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="1"/>
       <c r="R16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-3-T-3</v>
       </c>
-      <c r="S16" s="31"/>
+      <c r="S16" s="61"/>
       <c r="AF16">
         <v>3</v>
       </c>
@@ -2776,67 +3281,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="17">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="48">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="48">
         <v>51</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="48">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="38">
-        <f t="shared" ref="F17" si="33">+G17*12</f>
+      <c r="F17" s="58">
+        <f t="shared" ref="F17" si="36">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="38">
-        <f t="shared" ref="G17" si="34">+E17/D17</f>
+      <c r="G17" s="58">
+        <f t="shared" ref="G17" si="37">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="38">
-        <f t="shared" ref="H17" si="35">0.25*PI()*C17^2*D17</f>
+      <c r="H17" s="58">
+        <f t="shared" ref="H17" si="38">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="38">
-        <f t="shared" ref="I17" si="36">+E17/H17</f>
+      <c r="I17" s="58">
+        <f t="shared" ref="I17" si="39">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="41">
-        <f t="shared" ref="J17" si="37">+I17*12^3</f>
+      <c r="J17" s="57">
+        <f t="shared" ref="J17" si="40">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="48">
         <v>6.383</v>
       </c>
-      <c r="L17" s="42">
-        <f t="shared" ref="L17" si="38">ROUND(G17*21*0.1,4)</f>
+      <c r="L17" s="32">
+        <f t="shared" ref="L17" si="41">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="33">
-        <v>6.07</v>
-      </c>
-      <c r="N17" s="32">
-        <f t="shared" ref="N17" si="39">+K17-M17</f>
-        <v>0.31299999999999972</v>
-      </c>
-      <c r="O17" s="55">
-        <f t="shared" ref="O17" si="40">+N17/(G17*21)</f>
-        <v>0.12408469754209213</v>
+      <c r="M17" s="42">
+        <v>6.125</v>
+      </c>
+      <c r="N17" s="41">
+        <f t="shared" ref="N17" si="42">+K17-M17</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O17" s="35">
+        <f t="shared" ref="O17" si="43">+N17/(G17*21)</f>
+        <v>0.1022806772072198</v>
       </c>
       <c r="P17" s="1"/>
       <c r="R17" s="25" t="str">
         <f>+CONCATENATE("CL-",$AF17,"-BBT-",$AG17)</f>
         <v>CL-10-BBT-1</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="AF17">
@@ -2846,30 +3351,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="45"/>
       <c r="B18" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="56"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="1"/>
       <c r="R18" s="25" t="str">
-        <f t="shared" ref="R18:R19" si="41">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
+        <f t="shared" ref="R18:R19" si="44">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
         <v>CL-10-BBT-2</v>
       </c>
-      <c r="S18" s="31"/>
+      <c r="S18" s="61"/>
       <c r="AF18">
         <v>10</v>
       </c>
@@ -2877,30 +3382,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="45"/>
       <c r="B19" s="17">
         <v>0.82</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="56"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="1"/>
       <c r="R19" s="25" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>CL-10-BBT-3</v>
       </c>
-      <c r="S19" s="31"/>
+      <c r="S19" s="61"/>
       <c r="AF19">
         <v>10</v>
       </c>
@@ -2908,60 +3413,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="17">
         <v>0.8</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="48">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="48">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="48">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="38">
-        <f t="shared" ref="F20" si="42">+G20*12</f>
+      <c r="F20" s="58">
+        <f t="shared" ref="F20" si="45">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="38">
-        <f t="shared" ref="G20" si="43">+E20/D20</f>
+      <c r="G20" s="58">
+        <f t="shared" ref="G20" si="46">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="38">
-        <f t="shared" ref="H20" si="44">0.25*PI()*C20^2*D20</f>
+      <c r="H20" s="58">
+        <f t="shared" ref="H20" si="47">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="38">
-        <f t="shared" ref="I20" si="45">+E20/H20</f>
+      <c r="I20" s="58">
+        <f t="shared" ref="I20" si="48">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="41">
-        <f t="shared" ref="J20" si="46">+I20*12^3</f>
+      <c r="J20" s="57">
+        <f t="shared" ref="J20" si="49">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="48">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="32">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="42">
         <v>5.8849999999999998</v>
       </c>
-      <c r="N20" s="32">
-        <f t="shared" ref="N20" si="47">+K20-M20</f>
+      <c r="N20" s="41">
+        <f t="shared" ref="N20" si="50">+K20-M20</f>
         <v>0.50349999999999984</v>
       </c>
-      <c r="O20" s="57">
-        <f t="shared" ref="O20" si="48">+N20/(G20*21)</f>
+      <c r="O20" s="37">
+        <f t="shared" ref="O20" si="51">+N20/(G20*21)</f>
         <v>0.1990544225982401</v>
       </c>
       <c r="P20" s="1"/>
@@ -2969,7 +3474,7 @@
         <f>+CONCATENATE("CL-",$AF20,"-T-",$AG20)</f>
         <v>CL-20-T-1</v>
       </c>
-      <c r="S20" s="31" t="s">
+      <c r="S20" s="61" t="s">
         <v>11</v>
       </c>
       <c r="AF20">
@@ -2979,30 +3484,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="45"/>
       <c r="B21" s="17">
         <v>0.79</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="58"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="1"/>
       <c r="R21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-20-T-2</v>
       </c>
-      <c r="S21" s="31"/>
+      <c r="S21" s="61"/>
       <c r="AF21">
         <v>20</v>
       </c>
@@ -3010,30 +3515,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="45"/>
       <c r="B22" s="17">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="58"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="1"/>
       <c r="R22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CL-20-T-3</v>
       </c>
-      <c r="S22" s="31"/>
+      <c r="S22" s="61"/>
       <c r="AF22">
         <v>20</v>
       </c>
@@ -3041,68 +3546,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="48">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="48">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="48">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="38">
-        <f t="shared" ref="F23" si="49">+G23*12</f>
+      <c r="F23" s="58">
+        <f t="shared" ref="F23" si="52">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="38">
-        <f t="shared" ref="G23" si="50">+E23/D23</f>
+      <c r="G23" s="58">
+        <f t="shared" ref="G23" si="53">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="38">
-        <f t="shared" ref="H23" si="51">0.25*PI()*C23^2*D23</f>
+      <c r="H23" s="58">
+        <f t="shared" ref="H23" si="54">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="38">
-        <f t="shared" ref="I23" si="52">+E23/H23</f>
+      <c r="I23" s="58">
+        <f t="shared" ref="I23" si="55">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="41">
-        <f t="shared" ref="J23" si="53">+I23*12^3</f>
+      <c r="J23" s="57">
+        <f t="shared" ref="J23" si="56">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="48">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="42">
-        <f t="shared" ref="L23" si="54">ROUND(G23*21*0.15,4)</f>
+      <c r="L23" s="32">
+        <f t="shared" ref="L23" si="57">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="33">
-        <v>6.125</v>
-      </c>
-      <c r="N23" s="32">
-        <f t="shared" ref="N23" si="55">+K23-M23</f>
-        <v>0.28000000000000025</v>
-      </c>
-      <c r="O23" s="55">
-        <f t="shared" ref="O23" si="56">+N23/(G23*21)</f>
-        <v>0.1106326508503955</v>
+      <c r="M23" s="42">
+        <v>6.15</v>
+      </c>
+      <c r="N23" s="41">
+        <f t="shared" ref="N23" si="58">+K23-M23</f>
+        <v>0.25499999999999989</v>
+      </c>
+      <c r="O23" s="35">
+        <f t="shared" ref="O23" si="59">+N23/(G23*21)</f>
+        <v>0.10075473559589578</v>
       </c>
       <c r="P23" s="1"/>
       <c r="R23" s="25" t="str">
         <f>+CONCATENATE("CL-",$AF23,"-BBT-",$AG23)</f>
         <v>CL-10-BBT-4</v>
       </c>
-      <c r="S23" s="31" t="s">
+      <c r="S23" s="61" t="s">
         <v>9</v>
       </c>
       <c r="AF23">
@@ -3112,30 +3617,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="45"/>
       <c r="B24" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="1"/>
       <c r="R24" s="25" t="str">
-        <f t="shared" ref="R24:R25" si="57">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
+        <f t="shared" ref="R24:R25" si="60">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
         <v>CL-10-BBT-5</v>
       </c>
-      <c r="S24" s="31"/>
+      <c r="S24" s="61"/>
       <c r="AF24">
         <v>10</v>
       </c>
@@ -3143,30 +3648,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="45"/>
       <c r="B25" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="1"/>
       <c r="R25" s="25" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>CL-10-BBT-6</v>
       </c>
-      <c r="S25" s="31"/>
+      <c r="S25" s="61"/>
       <c r="AF25">
         <v>10</v>
       </c>
@@ -3174,58 +3679,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="48">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="48">
         <v>51</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="48">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="38">
-        <f t="shared" ref="F26" si="58">+G26*12</f>
+      <c r="F26" s="58">
+        <f t="shared" ref="F26" si="61">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="58">
         <f>+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="38">
-        <f t="shared" ref="H26" si="59">0.25*PI()*C26^2*D26</f>
+      <c r="H26" s="58">
+        <f t="shared" ref="H26" si="62">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="38">
-        <f t="shared" ref="I26" si="60">+E26/H26</f>
+      <c r="I26" s="58">
+        <f t="shared" ref="I26" si="63">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="41">
-        <f t="shared" ref="J26" si="61">+I26*12^3</f>
+      <c r="J26" s="57">
+        <f t="shared" ref="J26" si="64">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="48">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="42">
-        <f t="shared" ref="L26" si="62">ROUND(G26*21*0.15,4)</f>
+      <c r="L26" s="32">
+        <f t="shared" ref="L26" si="65">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="42">
         <v>6.16</v>
       </c>
-      <c r="N26" s="32">
-        <f t="shared" ref="N26" si="63">+K26-M26</f>
+      <c r="N26" s="41">
+        <f t="shared" ref="N26" si="66">+K26-M26</f>
         <v>0.24150000000000027</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="35">
         <f>+N26/(G26*21)</f>
         <v>9.5427920598763538E-2</v>
       </c>
@@ -3234,7 +3739,7 @@
         <f>+CONCATENATE("CL-",$AF26,"-BBT-",$AG26)</f>
         <v>CL-10-BBT-7</v>
       </c>
-      <c r="S26" s="31" t="s">
+      <c r="S26" s="61" t="s">
         <v>10</v>
       </c>
       <c r="AF26">
@@ -3244,30 +3749,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="45"/>
       <c r="B27" s="17">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="56"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="36"/>
       <c r="P27" s="1"/>
       <c r="R27" s="25" t="str">
-        <f t="shared" ref="R27:R28" si="64">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
+        <f t="shared" ref="R27:R28" si="67">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
         <v>CL-10-BBT-8</v>
       </c>
-      <c r="S27" s="31"/>
+      <c r="S27" s="61"/>
       <c r="AF27">
         <v>10</v>
       </c>
@@ -3275,30 +3780,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="45"/>
       <c r="B28" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="56"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="1"/>
       <c r="R28" s="25" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>CL-10-BBT-9</v>
       </c>
-      <c r="S28" s="31"/>
+      <c r="S28" s="61"/>
       <c r="AF28">
         <v>10</v>
       </c>
@@ -3306,8 +3811,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="45" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="17"/>
@@ -3315,27 +3820,27 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="48">
+      <c r="G29" s="51">
         <v>0.121</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="36">
+      <c r="K29" s="48">
         <v>6.375</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="32">
         <f>ROUND(G29*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="42">
         <v>5.875</v>
       </c>
-      <c r="N29" s="32">
-        <f t="shared" ref="N29:N44" si="65">+K29-M29</f>
+      <c r="N29" s="41">
+        <f t="shared" ref="N29:N44" si="68">+K29-M29</f>
         <v>0.5</v>
       </c>
-      <c r="O29" s="57">
+      <c r="O29" s="37">
         <f>+N29/(G29*21)</f>
         <v>0.19677292404565133</v>
       </c>
@@ -3344,7 +3849,7 @@
         <f>+CONCATENATE("CL-",$AF29,"-BBT-",$AG29)</f>
         <v>CL-20-BBT-1</v>
       </c>
-      <c r="S29" s="31" t="s">
+      <c r="S29" s="61" t="s">
         <v>35</v>
       </c>
       <c r="T29">
@@ -3362,11 +3867,11 @@
         <f>+AA29*1/16</f>
         <v>4.2010751517483652E-2</v>
       </c>
-      <c r="AC29" s="61">
+      <c r="AC29" s="31">
         <f>+AB29/60</f>
         <v>7.0017919195806088E-4</v>
       </c>
-      <c r="AD29" s="61">
+      <c r="AD29" s="31">
         <f>+AC29/10</f>
         <v>7.001791919580609E-5</v>
       </c>
@@ -3377,28 +3882,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="45"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="49"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="58"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="38"/>
       <c r="P30" s="1"/>
       <c r="R30" s="25" t="str">
-        <f t="shared" ref="R30:R31" si="66">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
+        <f t="shared" ref="R30:R31" si="69">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
         <v>CL-20-BBT-2</v>
       </c>
-      <c r="S30" s="31"/>
+      <c r="S30" s="61"/>
       <c r="T30">
         <v>0.67</v>
       </c>
@@ -3411,7 +3916,7 @@
         <v>0.67217202427973843</v>
       </c>
       <c r="AB30">
-        <f t="shared" ref="AB30:AB31" si="67">+AA30*1/16</f>
+        <f t="shared" ref="AB30:AB31" si="70">+AA30*1/16</f>
         <v>4.2010751517483652E-2</v>
       </c>
       <c r="AF30">
@@ -3421,28 +3926,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="45"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="50"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="58"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="38"/>
       <c r="P31" s="1"/>
       <c r="R31" s="25" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>CL-20-BBT-3</v>
       </c>
-      <c r="S31" s="31"/>
+      <c r="S31" s="61"/>
       <c r="T31">
         <v>0.67</v>
       </c>
@@ -3455,7 +3960,7 @@
         <v>0.67217202427973843</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>4.2010751517483652E-2</v>
       </c>
       <c r="AF31">
@@ -3465,8 +3970,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="17"/>
@@ -3474,28 +3979,28 @@
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="48">
+      <c r="G32" s="51">
         <v>0.121</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="36">
+      <c r="K32" s="48">
         <v>6.4349999999999996</v>
       </c>
-      <c r="L32" s="42">
-        <f t="shared" ref="L32" si="68">ROUND(G32*21*0.2,4)</f>
+      <c r="L32" s="32">
+        <f t="shared" ref="L32" si="71">ROUND(G32*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="42">
         <v>5.8650000000000002</v>
       </c>
-      <c r="N32" s="32">
-        <f t="shared" si="65"/>
+      <c r="N32" s="41">
+        <f t="shared" si="68"/>
         <v>0.5699999999999994</v>
       </c>
-      <c r="O32" s="57">
-        <f t="shared" ref="O32" si="69">+N32/(G32*21)</f>
+      <c r="O32" s="37">
+        <f t="shared" ref="O32" si="72">+N32/(G32*21)</f>
         <v>0.22432113341204227</v>
       </c>
       <c r="P32" s="1"/>
@@ -3503,7 +4008,7 @@
         <f>+CONCATENATE("CL-",$AF32,"-BBT-",$AG32)</f>
         <v>CL-20-BBT-4</v>
       </c>
-      <c r="S32" s="31" t="s">
+      <c r="S32" s="61" t="s">
         <v>36</v>
       </c>
       <c r="AF32">
@@ -3513,28 +4018,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="45"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="49"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="58"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="38"/>
       <c r="P33" s="1"/>
       <c r="R33" s="25" t="str">
-        <f t="shared" ref="R33:R46" si="70">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
+        <f t="shared" ref="R33:R46" si="73">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
         <v>CL-20-BBT-5</v>
       </c>
-      <c r="S33" s="31"/>
+      <c r="S33" s="61"/>
       <c r="AF33">
         <v>20</v>
       </c>
@@ -3542,28 +4047,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="45"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="58"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="38"/>
       <c r="P34" s="1"/>
       <c r="R34" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-20-BBT-6</v>
       </c>
-      <c r="S34" s="31"/>
+      <c r="S34" s="61"/>
       <c r="AF34">
         <v>20</v>
       </c>
@@ -3571,8 +4076,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+    <row r="35" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="17"/>
@@ -3580,36 +4085,36 @@
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="48">
+      <c r="G35" s="51">
         <v>0.121</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="36">
+      <c r="K35" s="48">
         <v>6.375</v>
       </c>
-      <c r="L35" s="42">
-        <f t="shared" ref="L35" si="71">ROUND(G35*21*0.2,4)</f>
+      <c r="L35" s="32">
+        <f t="shared" ref="L35" si="74">ROUND(G35*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="42">
         <v>6.1550000000000002</v>
       </c>
-      <c r="N35" s="32">
-        <f t="shared" si="65"/>
+      <c r="N35" s="41">
+        <f t="shared" si="68"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="O35" s="55">
-        <f t="shared" ref="O35" si="72">+N35/(G35*21)</f>
+      <c r="O35" s="35">
+        <f t="shared" ref="O35" si="75">+N35/(G35*21)</f>
         <v>8.6580086580086479E-2</v>
       </c>
       <c r="P35" s="1"/>
       <c r="R35" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-10-BBT-10</v>
       </c>
-      <c r="S35" s="31" t="s">
+      <c r="S35" s="61" t="s">
         <v>37</v>
       </c>
       <c r="AF35">
@@ -3619,28 +4124,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="45"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="49"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="56"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="1"/>
       <c r="R36" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-10-BBT-11</v>
       </c>
-      <c r="S36" s="31"/>
+      <c r="S36" s="61"/>
       <c r="AF36">
         <v>10</v>
       </c>
@@ -3648,28 +4153,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="45"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="56"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="36"/>
       <c r="P37" s="1"/>
       <c r="R37" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-10-BBT-12</v>
       </c>
-      <c r="S37" s="31"/>
+      <c r="S37" s="61"/>
       <c r="AF37">
         <v>10</v>
       </c>
@@ -3677,8 +4182,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="17"/>
@@ -3686,36 +4191,36 @@
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="48">
+      <c r="G38" s="51">
         <v>0.121</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="36">
+      <c r="K38" s="48">
         <v>6.4649999999999999</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="32">
         <f>ROUND(G38*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="42">
         <v>5.93</v>
       </c>
-      <c r="N38" s="32">
-        <f t="shared" si="65"/>
+      <c r="N38" s="41">
+        <f t="shared" si="68"/>
         <v>0.53500000000000014</v>
       </c>
-      <c r="O38" s="57">
-        <f t="shared" ref="O38" si="73">+N38/(G38*21)</f>
+      <c r="O38" s="37">
+        <f t="shared" ref="O38" si="76">+N38/(G38*21)</f>
         <v>0.21054702872884698</v>
       </c>
       <c r="P38" s="1"/>
       <c r="R38" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-20-BBT-7</v>
       </c>
-      <c r="S38" s="31" t="s">
+      <c r="S38" s="61" t="s">
         <v>38</v>
       </c>
       <c r="AF38">
@@ -3725,28 +4230,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="45"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="49"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="58"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="38"/>
       <c r="P39" s="1"/>
       <c r="R39" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-20-BBT-8</v>
       </c>
-      <c r="S39" s="31"/>
+      <c r="S39" s="61"/>
       <c r="AF39">
         <v>20</v>
       </c>
@@ -3754,28 +4259,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="45"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="58"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="38"/>
       <c r="P40" s="1"/>
       <c r="R40" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-20-BBT-9</v>
       </c>
-      <c r="S40" s="31"/>
+      <c r="S40" s="61"/>
       <c r="AF40">
         <v>20</v>
       </c>
@@ -3783,8 +4288,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="45" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="17"/>
@@ -3792,36 +4297,36 @@
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="48">
+      <c r="G41" s="51">
         <v>0.121</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="36">
+      <c r="K41" s="48">
         <v>6.3150000000000004</v>
       </c>
-      <c r="L41" s="42">
-        <f t="shared" ref="L41" si="74">ROUND(G41*21*0.25,4)</f>
+      <c r="L41" s="32">
+        <f t="shared" ref="L41" si="77">ROUND(G41*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="42">
         <v>5.95</v>
       </c>
-      <c r="N41" s="32">
-        <f t="shared" si="65"/>
+      <c r="N41" s="41">
+        <f t="shared" si="68"/>
         <v>0.36500000000000021</v>
       </c>
-      <c r="O41" s="59">
-        <f t="shared" ref="O41" si="75">+N41/(G41*21)</f>
+      <c r="O41" s="39">
+        <f t="shared" ref="O41" si="78">+N41/(G41*21)</f>
         <v>0.14364423455332556</v>
       </c>
       <c r="P41" s="1"/>
       <c r="R41" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-1</v>
       </c>
-      <c r="S41" s="31" t="s">
+      <c r="S41" s="61" t="s">
         <v>39</v>
       </c>
       <c r="AF41">
@@ -3831,28 +4336,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="45"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="49"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="60"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="40"/>
       <c r="P42" s="1"/>
       <c r="R42" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-2</v>
       </c>
-      <c r="S42" s="31"/>
+      <c r="S42" s="61"/>
       <c r="AF42">
         <v>15</v>
       </c>
@@ -3860,28 +4365,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="46"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="50"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="24"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="60"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="40"/>
       <c r="P43" s="1"/>
       <c r="R43" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-3</v>
       </c>
-      <c r="S43" s="31"/>
+      <c r="S43" s="61"/>
       <c r="AF43">
         <v>15</v>
       </c>
@@ -3889,8 +4394,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+    <row r="44" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
@@ -3898,36 +4403,36 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="48">
+      <c r="G44" s="51">
         <v>0.121</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="47">
+      <c r="K44" s="50">
         <v>6.42</v>
       </c>
-      <c r="L44" s="42">
-        <f t="shared" ref="L44" si="76">ROUND(G44*21*0.25,4)</f>
+      <c r="L44" s="32">
+        <f t="shared" ref="L44" si="79">ROUND(G44*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M44" s="52">
-        <v>5.9850000000000003</v>
-      </c>
-      <c r="N44" s="32">
-        <f t="shared" si="65"/>
-        <v>0.43499999999999961</v>
-      </c>
-      <c r="O44" s="59">
-        <f t="shared" ref="O44" si="77">+N44/(G44*21)</f>
-        <v>0.1711924439197165</v>
+      <c r="M44" s="44">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="N44" s="41">
+        <f t="shared" si="68"/>
+        <v>0.375</v>
+      </c>
+      <c r="O44" s="39">
+        <f t="shared" ref="O44" si="80">+N44/(G44*21)</f>
+        <v>0.14757969303423848</v>
       </c>
       <c r="P44" s="1"/>
       <c r="R44" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-4</v>
       </c>
-      <c r="S44" s="31" t="s">
+      <c r="S44" s="61" t="s">
         <v>40</v>
       </c>
       <c r="AF44">
@@ -3937,28 +4442,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+    <row r="45" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="47"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="49"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="60"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="40"/>
       <c r="P45" s="1"/>
       <c r="R45" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-5</v>
       </c>
-      <c r="S45" s="31"/>
+      <c r="S45" s="61"/>
       <c r="AF45">
         <v>15</v>
       </c>
@@ -3966,28 +4471,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="47"/>
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="50"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="60"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="1"/>
       <c r="R46" s="25" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>CL-15-BBT-6</v>
       </c>
-      <c r="S46" s="31"/>
+      <c r="S46" s="61"/>
       <c r="AF46">
         <v>15</v>
       </c>
@@ -3995,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
@@ -4035,6 +4540,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M45"/>
     <mergeCell ref="L29:L31"/>
     <mergeCell ref="L32:L34"/>
     <mergeCell ref="L35:L37"/>
@@ -4059,165 +4723,6 @@
     <mergeCell ref="N29:N31"/>
     <mergeCell ref="N32:N34"/>
     <mergeCell ref="N35:N37"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="S26:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4232,14 +4737,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>52</v>
       </c>
@@ -4247,7 +4752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6">
         <v>0</v>
       </c>
@@ -4260,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D7">
         <v>5</v>
       </c>
@@ -4273,7 +4778,7 @@
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8">
         <v>10</v>
       </c>
@@ -4286,7 +4791,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9">
         <v>15</v>
       </c>
@@ -4299,7 +4804,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D10">
         <v>20</v>
       </c>
@@ -4312,7 +4817,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11">
         <v>25</v>
       </c>
@@ -4325,7 +4830,7 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D12">
         <v>30</v>
       </c>
@@ -4338,7 +4843,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13">
         <v>35</v>
       </c>
@@ -4351,7 +4856,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14">
         <v>40</v>
       </c>
@@ -4364,7 +4869,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D15">
         <v>45</v>
       </c>
@@ -4377,7 +4882,7 @@
         <v>0.32500000000000007</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D16">
         <v>50</v>
       </c>
@@ -4390,7 +4895,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17">
         <v>55</v>
       </c>
@@ -4403,7 +4908,7 @@
         <v>0.17500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D18">
         <v>60</v>
       </c>
@@ -4416,7 +4921,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D19">
         <v>65</v>
       </c>
@@ -4429,7 +4934,7 @@
         <v>2.5000000000000022E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D20">
         <v>70</v>
       </c>
@@ -4442,7 +4947,7 @@
         <v>-5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D21">
         <v>75</v>
       </c>
@@ -4455,7 +4960,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D22">
         <v>80</v>
       </c>
@@ -4468,7 +4973,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D23">
         <v>85</v>
       </c>
@@ -4481,7 +4986,7 @@
         <v>-0.27499999999999991</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D24">
         <v>90</v>
       </c>
@@ -4494,7 +4999,7 @@
         <v>-0.34999999999999987</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D25">
         <v>95</v>
       </c>
@@ -4507,7 +5012,7 @@
         <v>-0.42500000000000004</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26">
         <v>96</v>
       </c>
@@ -4520,7 +5025,7 @@
         <v>-0.43999999999999995</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D27">
         <v>97</v>
       </c>
@@ -4533,7 +5038,7 @@
         <v>-0.45499999999999985</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D28">
         <v>98</v>
       </c>
@@ -4546,7 +5051,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D29">
         <v>99</v>
       </c>
@@ -4559,7 +5064,7 @@
         <v>-0.48499999999999988</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D30">
         <v>100</v>
       </c>
@@ -4586,13 +5091,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
@@ -4600,7 +5105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28">
         <f>+AVERAGE(Sheet1!O14)</f>
         <v>2.7155947019279859E-2</v>
@@ -4609,34 +5114,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28">
         <f>+AVERAGE(Sheet1!O2:O10)</f>
-        <v>5.2887867778547211E-2</v>
+        <v>5.0914208996852763E-2</v>
       </c>
       <c r="B3" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28">
         <f>+AVERAGE(Sheet1!O11,Sheet1!O17,Sheet1!O23:O28,Sheet1!O35)</f>
-        <v>0.10444112291367202</v>
+        <v>9.8104735795797621E-2</v>
       </c>
       <c r="B4" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28">
         <f>+AVERAGE(Sheet1!O41,Sheet1!O44)</f>
-        <v>0.15741833923652104</v>
+        <v>0.14561196379378202</v>
       </c>
       <c r="B5" s="27">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28">
         <f>+AVERAGE(Sheet1!O20,Sheet1!O29,Sheet1!O32,Sheet1!O38)</f>
         <v>0.20767387719619518</v>
@@ -4658,16 +5163,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -4684,7 +5189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4703,7 +5208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>

--- a/RebarDataBase.xlsx
+++ b/RebarDataBase.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Comparisson to ASTMA706" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Label</t>
   </si>
@@ -261,6 +262,15 @@
   </si>
   <si>
     <t>Mass loss (g)</t>
+  </si>
+  <si>
+    <t>CL20-TD-BBT-1_3</t>
+  </si>
+  <si>
+    <t>CL20-TD-BBT-4-6</t>
+  </si>
+  <si>
+    <t>CL15-TD-T-1_3</t>
   </si>
 </sst>
 </file>
@@ -319,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -438,12 +454,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -508,8 +533,73 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,71 +625,10 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT2:AT12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2035,59 +2064,59 @@
       </c>
     </row>
     <row r="2" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="16">
         <f>8/10+19*0.001</f>
         <v>0.81900000000000006</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="38">
         <f>+AVERAGE(B2:B4)</f>
         <v>0.81500000000000006</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="38">
         <f>50+7/8</f>
         <v>50.875</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="38">
         <v>6.1524999999999999</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="42">
         <f>+G2*12</f>
         <v>1.4512039312039311</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="42">
         <f>+E2/D2</f>
         <v>0.12093366093366092</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="42">
         <f>0.25*PI()*C2^2*D2</f>
         <v>26.540525712330844</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="42">
         <f>+E2/H2</f>
         <v>0.23181530263138389</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="43">
         <f>+I2*12^3</f>
         <v>400.57684294703137</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="38">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="46">
         <f>ROUND(G2*21*0.05,4)</f>
         <v>0.127</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="35">
         <v>6.27</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="35">
         <f>+K2-M2</f>
         <v>0.13950000000000085</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="56">
         <f>+N2/(G2*21)</f>
         <v>5.4929761421025472E-2</v>
       </c>
@@ -2096,7 +2125,7 @@
         <f>+CONCATENATE("CL-",$AF2,"-T-",$AG2)</f>
         <v>CL-5-T-1</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="T2">
@@ -2134,19 +2163,19 @@
       <c r="AI2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="62">
+      <c r="AJ2" s="32">
         <f>453.5924*K2</f>
         <v>2907.3004878000002</v>
       </c>
-      <c r="AK2" s="62">
+      <c r="AK2" s="32">
         <f>453.5924*M2</f>
         <v>2844.0243479999999</v>
       </c>
-      <c r="AL2" s="62">
-        <f>+AJ2-AK2</f>
+      <c r="AL2" s="32">
+        <f t="shared" ref="AL2:AL12" si="0">+AJ2-AK2</f>
         <v>63.276139800000237</v>
       </c>
-      <c r="AM2" s="63">
+      <c r="AM2" s="33">
         <f>+AL2/$AO$2</f>
         <v>3.8429752066115853E-2</v>
       </c>
@@ -2157,49 +2186,49 @@
       <c r="AP2" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="62">
+      <c r="AQ2" s="32">
         <f>+AJ2-$AO$2</f>
         <v>1260.7600758000003</v>
       </c>
-      <c r="AR2" s="62">
+      <c r="AR2" s="32">
         <f>+AK2-$AO$2</f>
         <v>1197.4839360000001</v>
       </c>
-      <c r="AS2" s="62">
-        <f>+AQ2-AR2</f>
+      <c r="AS2" s="32">
+        <f t="shared" ref="AS2:AS12" si="1">+AQ2-AR2</f>
         <v>63.276139800000237</v>
       </c>
-      <c r="AT2" s="63">
+      <c r="AT2" s="33">
         <f>+AS2/AQ2</f>
         <v>5.0188882892606757E-2</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="48">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="39">
         <v>6.4095000000000004</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="34"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="1"/>
       <c r="R3" s="25" t="str">
-        <f t="shared" ref="R3:R22" si="0">+CONCATENATE("CL-",$AF3,"-T-",$AG3)</f>
+        <f t="shared" ref="R3:R22" si="2">+CONCATENATE("CL-",$AF3,"-T-",$AG3)</f>
         <v>CL-5-T-2</v>
       </c>
-      <c r="S3" s="61"/>
+      <c r="S3" s="34"/>
       <c r="T3">
         <v>0.72799999999999998</v>
       </c>
@@ -2235,68 +2264,68 @@
       <c r="AI3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="62">
+      <c r="AJ3" s="32">
         <f>453.5924*K5</f>
         <v>2896.1874739999998</v>
       </c>
-      <c r="AK3" s="62">
+      <c r="AK3" s="32">
         <f>453.5924*M5</f>
         <v>2846.2923100000003</v>
       </c>
-      <c r="AL3" s="62">
-        <f>+AJ3-AK3</f>
+      <c r="AL3" s="32">
+        <f t="shared" si="0"/>
         <v>49.895163999999568</v>
       </c>
-      <c r="AM3" s="63">
-        <f t="shared" ref="AM3:AM12" si="1">+AL3/$AO$2</f>
+      <c r="AM3" s="33">
+        <f t="shared" ref="AM3:AM12" si="3">+AL3/$AO$2</f>
         <v>3.0303030303030044E-2</v>
       </c>
       <c r="AP3" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="62">
-        <f t="shared" ref="AQ3:AR12" si="2">+AJ3-$AO$2</f>
+      <c r="AQ3" s="32">
+        <f t="shared" ref="AQ3:AR16" si="4">+AJ3-$AO$2</f>
         <v>1249.647062</v>
       </c>
-      <c r="AR3" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR3" s="32">
+        <f t="shared" si="4"/>
         <v>1199.7518980000004</v>
       </c>
-      <c r="AS3" s="62">
-        <f>+AQ3-AR3</f>
+      <c r="AS3" s="32">
+        <f t="shared" si="1"/>
         <v>49.895163999999568</v>
       </c>
-      <c r="AT3" s="63">
-        <f t="shared" ref="AT3:AT12" si="3">+AS3/AQ3</f>
+      <c r="AT3" s="33">
+        <f t="shared" ref="AT3:AT12" si="5">+AS3/AQ3</f>
         <v>3.9927404718692938E-2</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="45"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="48">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="39">
         <v>6</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="34"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="1"/>
       <c r="R4" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-5-T-3</v>
       </c>
-      <c r="S4" s="61"/>
+      <c r="S4" s="34"/>
       <c r="T4">
         <v>0.72899999999999998</v>
       </c>
@@ -2332,96 +2361,96 @@
       <c r="AI4" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="62">
+      <c r="AJ4" s="32">
         <f>453.5924*K8</f>
         <v>2901.857379</v>
       </c>
-      <c r="AK4" s="62">
+      <c r="AK4" s="32">
         <f>453.5924*M8</f>
         <v>2839.4884239999997</v>
       </c>
-      <c r="AL4" s="62">
-        <f>+AJ4-AK4</f>
+      <c r="AL4" s="32">
+        <f t="shared" si="0"/>
         <v>62.368955000000369</v>
       </c>
-      <c r="AM4" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM4" s="33">
+        <f t="shared" si="3"/>
         <v>3.7878787878788109E-2</v>
       </c>
       <c r="AP4" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ4" s="32">
+        <f t="shared" si="4"/>
         <v>1255.3169670000002</v>
       </c>
-      <c r="AR4" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR4" s="32">
+        <f t="shared" si="4"/>
         <v>1192.9480119999998</v>
       </c>
-      <c r="AS4" s="62">
-        <f>+AQ4-AR4</f>
+      <c r="AS4" s="32">
+        <f t="shared" si="1"/>
         <v>62.368955000000369</v>
       </c>
-      <c r="AT4" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT4" s="33">
+        <f t="shared" si="5"/>
         <v>4.9683830171635336E-2</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="41">
         <f>+AVERAGE(B5:B7)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="39">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <v>6.1509999999999998</v>
       </c>
-      <c r="F5" s="58">
-        <f t="shared" ref="F5" si="4">+G5*12</f>
+      <c r="F5" s="41">
+        <f t="shared" ref="F5" si="6">+G5*12</f>
         <v>1.4437555012224939</v>
       </c>
-      <c r="G5" s="58">
-        <f t="shared" ref="G5" si="5">+E5/D5</f>
+      <c r="G5" s="41">
+        <f t="shared" ref="G5" si="7">+E5/D5</f>
         <v>0.12031295843520783</v>
       </c>
-      <c r="H5" s="58">
-        <f t="shared" ref="H5" si="6">0.25*PI()*C5^2*D5</f>
+      <c r="H5" s="41">
+        <f t="shared" ref="H5" si="8">0.25*PI()*C5^2*D5</f>
         <v>26.23639609060152</v>
       </c>
-      <c r="I5" s="58">
-        <f t="shared" ref="I5" si="7">+E5/H5</f>
+      <c r="I5" s="41">
+        <f t="shared" ref="I5" si="9">+E5/H5</f>
         <v>0.23444530943803785</v>
       </c>
-      <c r="J5" s="57">
-        <f t="shared" ref="J5" si="8">+I5*12^3</f>
+      <c r="J5" s="44">
+        <f t="shared" ref="J5" si="10">+I5*12^3</f>
         <v>405.12149470892939</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="39">
         <v>6.3849999999999998</v>
       </c>
-      <c r="L5" s="32">
-        <f t="shared" ref="L5" si="9">ROUND(G5*21*0.05,4)</f>
+      <c r="L5" s="45">
+        <f t="shared" ref="L5" si="11">ROUND(G5*21*0.05,4)</f>
         <v>0.1263</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="36">
         <v>6.2750000000000004</v>
       </c>
-      <c r="N5" s="41">
-        <f t="shared" ref="N5" si="10">+K5-M5</f>
+      <c r="N5" s="35">
+        <f t="shared" ref="N5" si="12">+K5-M5</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="O5" s="33">
-        <f t="shared" ref="O5" si="11">+N5/(G5*21)</f>
+      <c r="O5" s="56">
+        <f t="shared" ref="O5" si="13">+N5/(G5*21)</f>
         <v>4.3537249072934103E-2</v>
       </c>
       <c r="P5" s="1"/>
@@ -2429,7 +2458,7 @@
         <f>+CONCATENATE("CL-",$AF5,"-BBT-",$AG5)</f>
         <v>CL-5-BBT-1</v>
       </c>
-      <c r="S5" s="61" t="s">
+      <c r="S5" s="34" t="s">
         <v>4</v>
       </c>
       <c r="AF5">
@@ -2441,66 +2470,66 @@
       <c r="AI5" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="62">
+      <c r="AJ5" s="32">
         <f>453.5924*K11</f>
         <v>2890.5175689999996</v>
       </c>
-      <c r="AK5" s="62">
+      <c r="AK5" s="32">
         <f>453.5924*M11</f>
         <v>2769.1816020000001</v>
       </c>
-      <c r="AL5" s="62">
-        <f>+AJ5-AK5</f>
+      <c r="AL5" s="32">
+        <f t="shared" si="0"/>
         <v>121.33596699999953</v>
       </c>
-      <c r="AM5" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM5" s="33">
+        <f t="shared" si="3"/>
         <v>7.3691460055096136E-2</v>
       </c>
       <c r="AP5" t="s">
         <v>57</v>
       </c>
-      <c r="AQ5" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="32">
+        <f t="shared" si="4"/>
         <v>1243.9771569999998</v>
       </c>
-      <c r="AR5" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR5" s="32">
+        <f t="shared" si="4"/>
         <v>1122.6411900000003</v>
       </c>
-      <c r="AS5" s="62">
-        <f>+AQ5-AR5</f>
+      <c r="AS5" s="32">
+        <f t="shared" si="1"/>
         <v>121.33596699999953</v>
       </c>
-      <c r="AT5" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT5" s="33">
+        <f t="shared" si="5"/>
         <v>9.7538742023700636E-2</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="45"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="34"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="1"/>
       <c r="R6" s="25" t="str">
-        <f t="shared" ref="R6:R10" si="12">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
+        <f t="shared" ref="R6:R10" si="14">+CONCATENATE("CL-",$AF6,"-BBT-",$AG6)</f>
         <v>CL-5-BBT-2</v>
       </c>
-      <c r="S6" s="61"/>
+      <c r="S6" s="34"/>
       <c r="AF6">
         <v>5</v>
       </c>
@@ -2510,66 +2539,66 @@
       <c r="AI6" t="s">
         <v>58</v>
       </c>
-      <c r="AJ6" s="62">
+      <c r="AJ6" s="32">
         <f>453.5924*K17</f>
         <v>2895.2802892</v>
       </c>
-      <c r="AK6" s="62">
+      <c r="AK6" s="32">
         <f>453.5924*M17</f>
         <v>2778.2534500000002</v>
       </c>
-      <c r="AL6" s="62">
-        <f>+AJ6-AK6</f>
+      <c r="AL6" s="32">
+        <f t="shared" si="0"/>
         <v>117.02683919999981</v>
       </c>
-      <c r="AM6" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM6" s="33">
+        <f t="shared" si="3"/>
         <v>7.107438016528915E-2</v>
       </c>
       <c r="AP6" t="s">
         <v>58</v>
       </c>
-      <c r="AQ6" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ6" s="32">
+        <f t="shared" si="4"/>
         <v>1248.7398772000001</v>
       </c>
-      <c r="AR6" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR6" s="32">
+        <f t="shared" si="4"/>
         <v>1131.7130380000003</v>
       </c>
-      <c r="AS6" s="62">
-        <f>+AQ6-AR6</f>
+      <c r="AS6" s="32">
+        <f t="shared" si="1"/>
         <v>117.02683919999981</v>
       </c>
-      <c r="AT6" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT6" s="33">
+        <f t="shared" si="5"/>
         <v>9.3715946240464781E-2</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="45"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="17">
         <v>0.81499999999999995</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="34"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="1"/>
       <c r="R7" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>CL-5-BBT-3</v>
       </c>
-      <c r="S7" s="61"/>
+      <c r="S7" s="34"/>
       <c r="AF7">
         <v>5</v>
       </c>
@@ -2579,104 +2608,104 @@
       <c r="AI7" t="s">
         <v>59</v>
       </c>
-      <c r="AJ7" s="62">
+      <c r="AJ7" s="32">
         <f>453.5924*K23</f>
         <v>2905.2593219999999</v>
       </c>
-      <c r="AK7" s="62">
+      <c r="AK7" s="32">
         <f>453.5924*M23</f>
         <v>2789.5932600000001</v>
       </c>
-      <c r="AL7" s="62">
-        <f>+AJ7-AK7</f>
+      <c r="AL7" s="32">
+        <f t="shared" si="0"/>
         <v>115.66606199999978</v>
       </c>
-      <c r="AM7" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM7" s="33">
+        <f t="shared" si="3"/>
         <v>7.0247933884297398E-2</v>
       </c>
       <c r="AP7" t="s">
         <v>59</v>
       </c>
-      <c r="AQ7" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ7" s="32">
+        <f t="shared" si="4"/>
         <v>1258.7189100000001</v>
       </c>
-      <c r="AR7" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR7" s="32">
+        <f t="shared" si="4"/>
         <v>1143.0528480000003</v>
       </c>
-      <c r="AS7" s="62">
-        <f>+AQ7-AR7</f>
+      <c r="AS7" s="32">
+        <f t="shared" si="1"/>
         <v>115.66606199999978</v>
       </c>
-      <c r="AT7" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT7" s="33">
+        <f t="shared" si="5"/>
         <v>9.1891891891891717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="41">
         <f>+AVERAGE(B8:B10)</f>
         <v>0.80133333333333334</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="39">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="39">
         <v>6.16</v>
       </c>
-      <c r="F8" s="58">
-        <f t="shared" ref="F8" si="13">+G8*12</f>
+      <c r="F8" s="41">
+        <f t="shared" ref="F8" si="15">+G8*12</f>
         <v>1.4476376988984088</v>
       </c>
-      <c r="G8" s="58">
-        <f t="shared" ref="G8" si="14">+E8/D8</f>
+      <c r="G8" s="41">
+        <f t="shared" ref="G8" si="16">+E8/D8</f>
         <v>0.12063647490820073</v>
       </c>
-      <c r="H8" s="58">
-        <f t="shared" ref="H8" si="15">0.25*PI()*C8^2*D8</f>
+      <c r="H8" s="41">
+        <f t="shared" ref="H8" si="17">0.25*PI()*C8^2*D8</f>
         <v>25.752439316461313</v>
       </c>
-      <c r="I8" s="58">
-        <f t="shared" ref="I8" si="16">+E8/H8</f>
+      <c r="I8" s="41">
+        <f t="shared" ref="I8" si="18">+E8/H8</f>
         <v>0.23920064131798355</v>
       </c>
-      <c r="J8" s="57">
-        <f t="shared" ref="J8" si="17">+I8*12^3</f>
+      <c r="J8" s="44">
+        <f t="shared" ref="J8" si="19">+I8*12^3</f>
         <v>413.33870819747557</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="39">
         <v>6.3975</v>
       </c>
-      <c r="L8" s="32">
-        <f t="shared" ref="L8" si="18">ROUND(G8*21*0.05,4)</f>
+      <c r="L8" s="45">
+        <f t="shared" ref="L8" si="20">ROUND(G8*21*0.05,4)</f>
         <v>0.12670000000000001</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="36">
         <v>6.26</v>
       </c>
-      <c r="N8" s="41">
-        <f t="shared" ref="N8" si="19">+K8-M8</f>
+      <c r="N8" s="35">
+        <f t="shared" ref="N8" si="21">+K8-M8</f>
         <v>0.13750000000000018</v>
       </c>
-      <c r="O8" s="33">
-        <f t="shared" ref="O8" si="20">+N8/(G8*21)</f>
+      <c r="O8" s="56">
+        <f t="shared" ref="O8" si="22">+N8/(G8*21)</f>
         <v>5.4275616496598705E-2</v>
       </c>
       <c r="P8" s="1"/>
       <c r="R8" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>CL-5-BBT-4</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="34" t="s">
         <v>5</v>
       </c>
       <c r="AF8">
@@ -2688,66 +2717,66 @@
       <c r="AI8" t="s">
         <v>63</v>
       </c>
-      <c r="AJ8" s="62">
+      <c r="AJ8" s="32">
         <f>453.5924*K41</f>
         <v>2864.4360060000004</v>
       </c>
-      <c r="AK8" s="62">
+      <c r="AK8" s="32">
         <f>453.5924*M41</f>
         <v>2698.8747800000001</v>
       </c>
-      <c r="AL8" s="62">
-        <f>+AJ8-AK8</f>
+      <c r="AL8" s="32">
+        <f t="shared" si="0"/>
         <v>165.56122600000026</v>
       </c>
-      <c r="AM8" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM8" s="33">
+        <f t="shared" si="3"/>
         <v>0.10055096418732799</v>
       </c>
       <c r="AP8" t="s">
         <v>63</v>
       </c>
-      <c r="AQ8" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ8" s="32">
+        <f t="shared" si="4"/>
         <v>1217.8955940000005</v>
       </c>
-      <c r="AR8" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR8" s="32">
+        <f t="shared" si="4"/>
         <v>1052.3343680000003</v>
       </c>
-      <c r="AS8" s="62">
-        <f>+AQ8-AR8</f>
+      <c r="AS8" s="32">
+        <f t="shared" si="1"/>
         <v>165.56122600000026</v>
       </c>
-      <c r="AT8" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT8" s="33">
+        <f t="shared" si="5"/>
         <v>0.13594040968342661</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="45"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="17">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="34"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="1"/>
       <c r="R9" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>CL-5-BBT-5</v>
       </c>
-      <c r="S9" s="61"/>
+      <c r="S9" s="34"/>
       <c r="AF9">
         <v>5</v>
       </c>
@@ -2757,66 +2786,66 @@
       <c r="AI9" t="s">
         <v>64</v>
       </c>
-      <c r="AJ9" s="62">
+      <c r="AJ9" s="32">
         <f>453.5924*K44</f>
         <v>2912.063208</v>
       </c>
-      <c r="AK9" s="62">
+      <c r="AK9" s="32">
         <f>453.5924*M44</f>
         <v>2741.966058</v>
       </c>
-      <c r="AL9" s="62">
-        <f>+AJ9-AK9</f>
+      <c r="AL9" s="32">
+        <f t="shared" si="0"/>
         <v>170.09715000000006</v>
       </c>
-      <c r="AM9" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM9" s="33">
+        <f t="shared" si="3"/>
         <v>0.10330578512396699</v>
       </c>
       <c r="AP9" t="s">
         <v>64</v>
       </c>
-      <c r="AQ9" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ9" s="32">
+        <f t="shared" si="4"/>
         <v>1265.5227960000002</v>
       </c>
-      <c r="AR9" s="62">
+      <c r="AR9" s="32">
         <f>+AK9-$AO$2</f>
         <v>1095.4256460000001</v>
       </c>
-      <c r="AS9" s="62">
-        <f>+AQ9-AR9</f>
+      <c r="AS9" s="32">
+        <f t="shared" si="1"/>
         <v>170.09715000000006</v>
       </c>
-      <c r="AT9" s="63">
+      <c r="AT9" s="33">
         <f>+AS9/AQ9</f>
         <v>0.13440860215053765</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="45"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="17">
         <v>0.82</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="34"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="1"/>
       <c r="R10" s="25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>CL-5-BBT-6</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="34"/>
       <c r="AF10">
         <v>5</v>
       </c>
@@ -2826,96 +2855,96 @@
       <c r="AI10" t="s">
         <v>60</v>
       </c>
-      <c r="AJ10" s="62">
+      <c r="AJ10" s="32">
         <f>453.5924*K20</f>
         <v>2897.7750473999999</v>
       </c>
-      <c r="AK10" s="62">
+      <c r="AK10" s="32">
         <f>453.5924*M20</f>
         <v>2669.3912740000001</v>
       </c>
-      <c r="AL10" s="62">
-        <f>+AJ10-AK10</f>
+      <c r="AL10" s="32">
+        <f t="shared" si="0"/>
         <v>228.38377339999988</v>
       </c>
-      <c r="AM10" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM10" s="33">
+        <f t="shared" si="3"/>
         <v>0.13870523415977956</v>
       </c>
       <c r="AP10" t="s">
         <v>60</v>
       </c>
-      <c r="AQ10" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ10" s="32">
+        <f t="shared" si="4"/>
         <v>1251.2346354000001</v>
       </c>
-      <c r="AR10" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR10" s="32">
+        <f t="shared" si="4"/>
         <v>1022.8508620000002</v>
       </c>
-      <c r="AS10" s="62">
-        <f>+AQ10-AR10</f>
+      <c r="AS10" s="32">
+        <f t="shared" si="1"/>
         <v>228.38377339999988</v>
       </c>
-      <c r="AT10" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT10" s="33">
+        <f t="shared" si="5"/>
         <v>0.18252673554467996</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="17">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="39">
         <f>+AVERAGE(B11:B13)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="39">
         <f>51+1/8</f>
         <v>51.125</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="39">
         <v>6.1740000000000004</v>
       </c>
-      <c r="F11" s="58">
-        <f t="shared" ref="F11" si="21">+G11*12</f>
+      <c r="F11" s="41">
+        <f t="shared" ref="F11" si="23">+G11*12</f>
         <v>1.449154034229829</v>
       </c>
-      <c r="G11" s="58">
-        <f t="shared" ref="G11" si="22">+E11/D11</f>
+      <c r="G11" s="41">
+        <f t="shared" ref="G11" si="24">+E11/D11</f>
         <v>0.12076283618581908</v>
       </c>
-      <c r="H11" s="58">
-        <f t="shared" ref="H11" si="23">0.25*PI()*C11^2*D11</f>
+      <c r="H11" s="41">
+        <f t="shared" ref="H11" si="25">0.25*PI()*C11^2*D11</f>
         <v>25.634022490079705</v>
       </c>
-      <c r="I11" s="58">
-        <f t="shared" ref="I11" si="24">+E11/H11</f>
+      <c r="I11" s="41">
+        <f t="shared" ref="I11" si="26">+E11/H11</f>
         <v>0.24085178213404942</v>
       </c>
-      <c r="J11" s="57">
-        <f t="shared" ref="J11" si="25">+I11*12^3</f>
+      <c r="J11" s="44">
+        <f t="shared" ref="J11" si="27">+I11*12^3</f>
         <v>416.19187952763741</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="39">
         <v>6.3724999999999996</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="45">
         <f>ROUND(G11*21*0.1,4)</f>
         <v>0.25359999999999999</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="36">
         <v>6.1050000000000004</v>
       </c>
-      <c r="N11" s="41">
-        <f t="shared" ref="N11" si="26">+K11-M11</f>
+      <c r="N11" s="35">
+        <f t="shared" ref="N11" si="28">+K11-M11</f>
         <v>0.26749999999999918</v>
       </c>
-      <c r="O11" s="35">
-        <f t="shared" ref="O11" si="27">+N11/(G11*21)</f>
+      <c r="O11" s="58">
+        <f t="shared" ref="O11" si="29">+N11/(G11*21)</f>
         <v>0.10548025899702251</v>
       </c>
       <c r="P11" s="1"/>
@@ -2923,7 +2952,7 @@
         <f>+CONCATENATE("CL-",$AF11,"-T-",$AG11)</f>
         <v>CL-10-T-1</v>
       </c>
-      <c r="S11" s="61" t="s">
+      <c r="S11" s="34" t="s">
         <v>6</v>
       </c>
       <c r="T11">
@@ -2961,66 +2990,66 @@
       <c r="AI11" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="62">
+      <c r="AJ11" s="32">
         <f>453.5924*K29</f>
         <v>2891.65155</v>
       </c>
-      <c r="AK11" s="62">
+      <c r="AK11" s="32">
         <f>453.5924*M29</f>
         <v>2664.8553499999998</v>
       </c>
-      <c r="AL11" s="62">
-        <f>+AJ11-AK11</f>
+      <c r="AL11" s="32">
+        <f t="shared" si="0"/>
         <v>226.79620000000023</v>
       </c>
-      <c r="AM11" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM11" s="33">
+        <f t="shared" si="3"/>
         <v>0.13774104683195607</v>
       </c>
       <c r="AP11" t="s">
         <v>61</v>
       </c>
-      <c r="AQ11" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ11" s="32">
+        <f t="shared" si="4"/>
         <v>1245.1111380000002</v>
       </c>
-      <c r="AR11" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR11" s="32">
+        <f t="shared" si="4"/>
         <v>1018.314938</v>
       </c>
-      <c r="AS11" s="62">
-        <f>+AQ11-AR11</f>
+      <c r="AS11" s="32">
+        <f t="shared" si="1"/>
         <v>226.79620000000023</v>
       </c>
-      <c r="AT11" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT11" s="33">
+        <f t="shared" si="5"/>
         <v>0.18214936247723149</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="45"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="17">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="36"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="59"/>
       <c r="P12" s="1"/>
       <c r="R12" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-10-T-2</v>
       </c>
-      <c r="S12" s="61"/>
+      <c r="S12" s="34"/>
       <c r="T12">
         <v>0.67700000000000005</v>
       </c>
@@ -3056,66 +3085,66 @@
       <c r="AI12" t="s">
         <v>62</v>
       </c>
-      <c r="AJ12" s="62">
+      <c r="AJ12" s="32">
         <f>453.5924*K32</f>
         <v>2918.8670939999997</v>
       </c>
-      <c r="AK12" s="62">
+      <c r="AK12" s="32">
         <f>453.5924*M32</f>
         <v>2660.319426</v>
       </c>
-      <c r="AL12" s="62">
-        <f>+AJ12-AK12</f>
+      <c r="AL12" s="32">
+        <f t="shared" si="0"/>
         <v>258.5476679999997</v>
       </c>
-      <c r="AM12" s="63">
-        <f t="shared" si="1"/>
+      <c r="AM12" s="33">
+        <f t="shared" si="3"/>
         <v>0.15702479338842959</v>
       </c>
       <c r="AP12" t="s">
         <v>62</v>
       </c>
-      <c r="AQ12" s="62">
-        <f t="shared" si="2"/>
+      <c r="AQ12" s="32">
+        <f t="shared" si="4"/>
         <v>1272.3266819999999</v>
       </c>
-      <c r="AR12" s="62">
-        <f t="shared" si="2"/>
+      <c r="AR12" s="32">
+        <f t="shared" si="4"/>
         <v>1013.7790140000002</v>
       </c>
-      <c r="AS12" s="62">
-        <f>+AQ12-AR12</f>
+      <c r="AS12" s="32">
+        <f t="shared" si="1"/>
         <v>258.5476679999997</v>
       </c>
-      <c r="AT12" s="63">
-        <f t="shared" si="3"/>
+      <c r="AT12" s="33">
+        <f t="shared" si="5"/>
         <v>0.20320855614973241</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="45"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17">
         <v>0.79800000000000004</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="59"/>
       <c r="P13" s="1"/>
       <c r="R13" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-10-T-3</v>
       </c>
-      <c r="S13" s="61"/>
+      <c r="S13" s="34"/>
       <c r="T13">
         <v>0.69499999999999995</v>
       </c>
@@ -3150,58 +3179,58 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="39">
         <f>+AVERAGE(B14:B16)</f>
         <v>0.80100000000000005</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="39">
         <v>51</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="39">
         <v>6.4390000000000001</v>
       </c>
-      <c r="F14" s="58">
-        <f t="shared" ref="F14" si="28">+G14*12</f>
+      <c r="F14" s="41">
+        <f t="shared" ref="F14" si="30">+G14*12</f>
         <v>1.5150588235294118</v>
       </c>
-      <c r="G14" s="58">
-        <f t="shared" ref="G14" si="29">+E14/D14</f>
+      <c r="G14" s="41">
+        <f t="shared" ref="G14" si="31">+E14/D14</f>
         <v>0.12625490196078432</v>
       </c>
-      <c r="H14" s="58">
-        <f t="shared" ref="H14" si="30">0.25*PI()*C14^2*D14</f>
+      <c r="H14" s="41">
+        <f t="shared" ref="H14" si="32">0.25*PI()*C14^2*D14</f>
         <v>25.699524598732282</v>
       </c>
-      <c r="I14" s="58">
-        <f t="shared" ref="I14" si="31">+E14/H14</f>
+      <c r="I14" s="41">
+        <f t="shared" ref="I14" si="33">+E14/H14</f>
         <v>0.25054938177018365</v>
       </c>
-      <c r="J14" s="57">
-        <f t="shared" ref="J14" si="32">+I14*12^3</f>
+      <c r="J14" s="44">
+        <f t="shared" ref="J14" si="34">+I14*12^3</f>
         <v>432.94933169887736</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="39">
         <v>6.3920000000000003</v>
       </c>
-      <c r="L14" s="32">
-        <f t="shared" ref="L14" si="33">ROUND(G14*21*0.1,4)</f>
+      <c r="L14" s="45">
+        <f t="shared" ref="L14" si="35">ROUND(G14*21*0.1,4)</f>
         <v>0.2651</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="36">
         <v>6.32</v>
       </c>
-      <c r="N14" s="41">
-        <f t="shared" ref="N14" si="34">+K14-M14</f>
+      <c r="N14" s="35">
+        <f t="shared" ref="N14" si="36">+K14-M14</f>
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="O14" s="33">
-        <f t="shared" ref="O14" si="35">+N14/(G14*21)</f>
+      <c r="O14" s="56">
+        <f t="shared" ref="O14" si="37">+N14/(G14*21)</f>
         <v>2.7155947019279859E-2</v>
       </c>
       <c r="P14" s="1"/>
@@ -3209,7 +3238,7 @@
         <f>+CONCATENATE("CL-",$AF14,"-T-",$AG14)</f>
         <v>CL-3-T-1</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="S14" s="34" t="s">
         <v>7</v>
       </c>
       <c r="AF14">
@@ -3218,122 +3247,236 @@
       <c r="AG14">
         <v>1</v>
       </c>
+      <c r="AI14" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ14" s="32">
+        <f>453.5924*K38</f>
+        <v>2932.474866</v>
+      </c>
+      <c r="AK14" s="32">
+        <f>453.5924*M38</f>
+        <v>2689.8029320000001</v>
+      </c>
+      <c r="AL14" s="32">
+        <f t="shared" ref="AL14:AL16" si="38">+AJ14-AK14</f>
+        <v>242.67193399999996</v>
+      </c>
+      <c r="AM14" s="33">
+        <f t="shared" ref="AM14:AM16" si="39">+AL14/$AO$2</f>
+        <v>0.14738292011019283</v>
+      </c>
+      <c r="AP14" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ14" s="32">
+        <f t="shared" si="4"/>
+        <v>1285.9344540000002</v>
+      </c>
+      <c r="AR14" s="32">
+        <f t="shared" ref="AR14:AR16" si="40">+AK14-$AO$2</f>
+        <v>1043.2625200000002</v>
+      </c>
+      <c r="AS14" s="32">
+        <f t="shared" ref="AS14" si="41">+AQ14-AR14</f>
+        <v>242.67193399999996</v>
+      </c>
+      <c r="AT14" s="33">
+        <f t="shared" ref="AT14" si="42">+AS14/AQ14</f>
+        <v>0.18871252204585531</v>
+      </c>
     </row>
     <row r="15" spans="1:46" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="45"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="1"/>
       <c r="R15" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-3-T-2</v>
       </c>
-      <c r="S15" s="61"/>
+      <c r="S15" s="34"/>
       <c r="AF15">
         <v>3</v>
       </c>
       <c r="AG15">
         <v>2</v>
       </c>
+      <c r="AI15" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ15" s="32">
+        <f>453.5924*K38</f>
+        <v>2932.474866</v>
+      </c>
+      <c r="AK15" s="32">
+        <f>453.5924*M38*0.99</f>
+        <v>2662.9049026799999</v>
+      </c>
+      <c r="AL15" s="32">
+        <f t="shared" si="38"/>
+        <v>269.56996332000017</v>
+      </c>
+      <c r="AM15" s="33">
+        <f t="shared" si="39"/>
+        <v>0.16371900826446292</v>
+      </c>
+      <c r="AP15" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" s="32">
+        <f t="shared" si="4"/>
+        <v>1285.9344540000002</v>
+      </c>
+      <c r="AR15" s="32">
+        <f t="shared" si="40"/>
+        <v>1016.36449068</v>
+      </c>
+      <c r="AS15" s="32">
+        <f t="shared" ref="AS15:AS16" si="43">+AQ15-AR15</f>
+        <v>269.56996332000017</v>
+      </c>
+      <c r="AT15" s="33">
+        <f t="shared" ref="AT15:AT16" si="44">+AS15/AQ15</f>
+        <v>0.20962962962962972</v>
+      </c>
     </row>
     <row r="16" spans="1:46" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="45"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="17">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="34"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="1"/>
       <c r="R16" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-3-T-3</v>
       </c>
-      <c r="S16" s="61"/>
+      <c r="S16" s="34"/>
       <c r="AF16">
         <v>3</v>
       </c>
       <c r="AG16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45" t="s">
+      <c r="AI16" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ16" s="32">
+        <f>453.5924*K26</f>
+        <v>2903.6717486000002</v>
+      </c>
+      <c r="AK16" s="32">
+        <f>453.5924*M26</f>
+        <v>2794.1291839999999</v>
+      </c>
+      <c r="AL16" s="32">
+        <f t="shared" si="38"/>
+        <v>109.54256460000033</v>
+      </c>
+      <c r="AM16" s="33">
+        <f t="shared" si="39"/>
+        <v>6.6528925619834922E-2</v>
+      </c>
+      <c r="AP16" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ16" s="32">
+        <f>+AJ16-$AO$2</f>
+        <v>1257.1313366000004</v>
+      </c>
+      <c r="AR16" s="32">
+        <f>+AK16-$AO$2</f>
+        <v>1147.5887720000001</v>
+      </c>
+      <c r="AS16" s="32">
+        <f t="shared" si="43"/>
+        <v>109.54256460000033</v>
+      </c>
+      <c r="AT16" s="33">
+        <f t="shared" si="44"/>
+        <v>8.7136929460581145E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="17">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="39">
         <f>+AVERAGE(B17:B19)</f>
         <v>0.83</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="39">
         <v>51</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="39">
         <v>6.1260000000000003</v>
       </c>
-      <c r="F17" s="58">
-        <f t="shared" ref="F17" si="36">+G17*12</f>
+      <c r="F17" s="41">
+        <f t="shared" ref="F17" si="45">+G17*12</f>
         <v>1.4414117647058824</v>
       </c>
-      <c r="G17" s="58">
-        <f t="shared" ref="G17" si="37">+E17/D17</f>
+      <c r="G17" s="41">
+        <f t="shared" ref="G17" si="46">+E17/D17</f>
         <v>0.12011764705882354</v>
       </c>
-      <c r="H17" s="58">
-        <f t="shared" ref="H17" si="38">0.25*PI()*C17^2*D17</f>
+      <c r="H17" s="41">
+        <f t="shared" ref="H17" si="47">0.25*PI()*C17^2*D17</f>
         <v>27.594100532989607</v>
       </c>
-      <c r="I17" s="58">
-        <f t="shared" ref="I17" si="39">+E17/H17</f>
+      <c r="I17" s="41">
+        <f t="shared" ref="I17" si="48">+E17/H17</f>
         <v>0.22200397482339301</v>
       </c>
-      <c r="J17" s="57">
-        <f t="shared" ref="J17" si="40">+I17*12^3</f>
+      <c r="J17" s="44">
+        <f t="shared" ref="J17" si="49">+I17*12^3</f>
         <v>383.62286849482314</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="39">
         <v>6.383</v>
       </c>
-      <c r="L17" s="32">
-        <f t="shared" ref="L17" si="41">ROUND(G17*21*0.1,4)</f>
+      <c r="L17" s="45">
+        <f t="shared" ref="L17" si="50">ROUND(G17*21*0.1,4)</f>
         <v>0.25219999999999998</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="36">
         <v>6.125</v>
       </c>
-      <c r="N17" s="41">
-        <f t="shared" ref="N17" si="42">+K17-M17</f>
+      <c r="N17" s="35">
+        <f t="shared" ref="N17" si="51">+K17-M17</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="O17" s="35">
-        <f t="shared" ref="O17" si="43">+N17/(G17*21)</f>
+      <c r="O17" s="58">
+        <f t="shared" ref="O17" si="52">+N17/(G17*21)</f>
         <v>0.1022806772072198</v>
       </c>
       <c r="P17" s="1"/>
@@ -3341,7 +3484,7 @@
         <f>+CONCATENATE("CL-",$AF17,"-BBT-",$AG17)</f>
         <v>CL-10-BBT-1</v>
       </c>
-      <c r="S17" s="61" t="s">
+      <c r="S17" s="34" t="s">
         <v>8</v>
       </c>
       <c r="AF17">
@@ -3350,123 +3493,126 @@
       <c r="AG17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="45"/>
+      <c r="AP17" s="64"/>
+    </row>
+    <row r="18" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="37"/>
       <c r="B18" s="17">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="1"/>
       <c r="R18" s="25" t="str">
-        <f t="shared" ref="R18:R19" si="44">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
+        <f t="shared" ref="R18:R19" si="53">+CONCATENATE("CL-",$AF18,"-BBT-",$AG18)</f>
         <v>CL-10-BBT-2</v>
       </c>
-      <c r="S18" s="61"/>
+      <c r="S18" s="34"/>
       <c r="AF18">
         <v>10</v>
       </c>
       <c r="AG18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="45"/>
+      <c r="AP18" s="64"/>
+    </row>
+    <row r="19" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="37"/>
       <c r="B19" s="17">
         <v>0.82</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="1"/>
       <c r="R19" s="25" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>CL-10-BBT-3</v>
       </c>
-      <c r="S19" s="61"/>
+      <c r="S19" s="34"/>
       <c r="AF19">
         <v>10</v>
       </c>
       <c r="AG19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45" t="s">
+      <c r="AP19" s="64"/>
+    </row>
+    <row r="20" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="17">
         <v>0.8</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="39">
         <f>+AVERAGE(B20:B22)</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="39">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="39">
         <v>6.1505000000000001</v>
       </c>
-      <c r="F20" s="58">
-        <f t="shared" ref="F20" si="45">+G20*12</f>
+      <c r="F20" s="41">
+        <f t="shared" ref="F20" si="54">+G20*12</f>
         <v>1.4454051407588739</v>
       </c>
-      <c r="G20" s="58">
-        <f t="shared" ref="G20" si="46">+E20/D20</f>
+      <c r="G20" s="41">
+        <f t="shared" ref="G20" si="55">+E20/D20</f>
         <v>0.12045042839657283</v>
       </c>
-      <c r="H20" s="58">
-        <f t="shared" ref="H20" si="47">0.25*PI()*C20^2*D20</f>
+      <c r="H20" s="41">
+        <f t="shared" ref="H20" si="56">0.25*PI()*C20^2*D20</f>
         <v>25.346979439923714</v>
       </c>
-      <c r="I20" s="58">
-        <f t="shared" ref="I20" si="48">+E20/H20</f>
+      <c r="I20" s="41">
+        <f t="shared" ref="I20" si="57">+E20/H20</f>
         <v>0.24265218719956916</v>
       </c>
-      <c r="J20" s="57">
-        <f t="shared" ref="J20" si="49">+I20*12^3</f>
+      <c r="J20" s="44">
+        <f t="shared" ref="J20" si="58">+I20*12^3</f>
         <v>419.30297948085553</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="39">
         <v>6.3884999999999996</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="45">
         <f>ROUND(G20*21*0.15,4)</f>
         <v>0.37940000000000002</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="36">
         <v>5.8849999999999998</v>
       </c>
-      <c r="N20" s="41">
-        <f t="shared" ref="N20" si="50">+K20-M20</f>
+      <c r="N20" s="35">
+        <f t="shared" ref="N20" si="59">+K20-M20</f>
         <v>0.50349999999999984</v>
       </c>
-      <c r="O20" s="37">
-        <f t="shared" ref="O20" si="51">+N20/(G20*21)</f>
+      <c r="O20" s="60">
+        <f t="shared" ref="O20" si="60">+N20/(G20*21)</f>
         <v>0.1990544225982401</v>
       </c>
       <c r="P20" s="1"/>
@@ -3474,7 +3620,7 @@
         <f>+CONCATENATE("CL-",$AF20,"-T-",$AG20)</f>
         <v>CL-20-T-1</v>
       </c>
-      <c r="S20" s="61" t="s">
+      <c r="S20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="AF20">
@@ -3484,30 +3630,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="37"/>
       <c r="B21" s="17">
         <v>0.79</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="1"/>
       <c r="R21" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-20-T-2</v>
       </c>
-      <c r="S21" s="61"/>
+      <c r="S21" s="34"/>
       <c r="AF21">
         <v>20</v>
       </c>
@@ -3515,30 +3661,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="37"/>
       <c r="B22" s="17">
         <v>0.79500000000000004</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="61"/>
       <c r="P22" s="1"/>
       <c r="R22" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CL-20-T-3</v>
       </c>
-      <c r="S22" s="61"/>
+      <c r="S22" s="34"/>
       <c r="AF22">
         <v>20</v>
       </c>
@@ -3546,60 +3692,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="39">
         <f>+AVERAGE(B23:B25)</f>
         <v>0.79900000000000004</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="39">
         <f>51+1/16</f>
         <v>51.0625</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="39">
         <v>6.1539999999999999</v>
       </c>
-      <c r="F23" s="58">
-        <f t="shared" ref="F23" si="52">+G23*12</f>
+      <c r="F23" s="41">
+        <f t="shared" ref="F23" si="61">+G23*12</f>
         <v>1.4462276621787025</v>
       </c>
-      <c r="G23" s="58">
-        <f t="shared" ref="G23" si="53">+E23/D23</f>
+      <c r="G23" s="41">
+        <f t="shared" ref="G23" si="62">+E23/D23</f>
         <v>0.12051897184822521</v>
       </c>
-      <c r="H23" s="58">
-        <f t="shared" ref="H23" si="54">0.25*PI()*C23^2*D23</f>
+      <c r="H23" s="41">
+        <f t="shared" ref="H23" si="63">0.25*PI()*C23^2*D23</f>
         <v>25.602685054272762</v>
       </c>
-      <c r="I23" s="58">
-        <f t="shared" ref="I23" si="55">+E23/H23</f>
+      <c r="I23" s="41">
+        <f t="shared" ref="I23" si="64">+E23/H23</f>
         <v>0.24036541428973973</v>
       </c>
-      <c r="J23" s="57">
-        <f t="shared" ref="J23" si="56">+I23*12^3</f>
+      <c r="J23" s="44">
+        <f t="shared" ref="J23" si="65">+I23*12^3</f>
         <v>415.35143589267028</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="39">
         <v>6.4050000000000002</v>
       </c>
-      <c r="L23" s="32">
-        <f t="shared" ref="L23" si="57">ROUND(G23*21*0.15,4)</f>
+      <c r="L23" s="45">
+        <f t="shared" ref="L23" si="66">ROUND(G23*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="36">
         <v>6.15</v>
       </c>
-      <c r="N23" s="41">
-        <f t="shared" ref="N23" si="58">+K23-M23</f>
+      <c r="N23" s="35">
+        <f t="shared" ref="N23" si="67">+K23-M23</f>
         <v>0.25499999999999989</v>
       </c>
-      <c r="O23" s="35">
-        <f t="shared" ref="O23" si="59">+N23/(G23*21)</f>
+      <c r="O23" s="58">
+        <f t="shared" ref="O23" si="68">+N23/(G23*21)</f>
         <v>0.10075473559589578</v>
       </c>
       <c r="P23" s="1"/>
@@ -3607,7 +3753,7 @@
         <f>+CONCATENATE("CL-",$AF23,"-BBT-",$AG23)</f>
         <v>CL-10-BBT-4</v>
       </c>
-      <c r="S23" s="61" t="s">
+      <c r="S23" s="34" t="s">
         <v>9</v>
       </c>
       <c r="AF23">
@@ -3617,30 +3763,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="37"/>
       <c r="B24" s="17">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="1"/>
       <c r="R24" s="25" t="str">
-        <f t="shared" ref="R24:R25" si="60">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
+        <f t="shared" ref="R24:R25" si="69">+CONCATENATE("CL-",$AF24,"-BBT-",$AG24)</f>
         <v>CL-10-BBT-5</v>
       </c>
-      <c r="S24" s="61"/>
+      <c r="S24" s="34"/>
       <c r="AF24">
         <v>10</v>
       </c>
@@ -3648,30 +3794,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="37"/>
       <c r="B25" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="1"/>
       <c r="R25" s="25" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>CL-10-BBT-6</v>
       </c>
-      <c r="S25" s="61"/>
+      <c r="S25" s="34"/>
       <c r="AF25">
         <v>10</v>
       </c>
@@ -3679,67 +3825,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="45" t="s">
+    <row r="26" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="39">
         <f>+AVERAGE(B26:B28)</f>
         <v>0.80799999999999994</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="39">
         <v>51</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="39">
         <v>6.1459999999999999</v>
       </c>
-      <c r="F26" s="58">
-        <f t="shared" ref="F26" si="61">+G26*12</f>
+      <c r="F26" s="41">
+        <f t="shared" ref="F26" si="70">+G26*12</f>
         <v>1.4461176470588235</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="41">
         <f>+E26/D26</f>
         <v>0.12050980392156863</v>
       </c>
-      <c r="H26" s="58">
-        <f t="shared" ref="H26" si="62">0.25*PI()*C26^2*D26</f>
+      <c r="H26" s="41">
+        <f t="shared" ref="H26" si="71">0.25*PI()*C26^2*D26</f>
         <v>26.150667513963892</v>
       </c>
-      <c r="I26" s="58">
-        <f t="shared" ref="I26" si="63">+E26/H26</f>
+      <c r="I26" s="41">
+        <f t="shared" ref="I26" si="72">+E26/H26</f>
         <v>0.23502268141790905</v>
       </c>
-      <c r="J26" s="57">
-        <f t="shared" ref="J26" si="64">+I26*12^3</f>
+      <c r="J26" s="44">
+        <f t="shared" ref="J26" si="73">+I26*12^3</f>
         <v>406.11919349014681</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="39">
         <v>6.4015000000000004</v>
       </c>
-      <c r="L26" s="32">
-        <f t="shared" ref="L26" si="65">ROUND(G26*21*0.15,4)</f>
+      <c r="L26" s="45">
+        <f t="shared" ref="L26" si="74">ROUND(G26*21*0.15,4)</f>
         <v>0.37959999999999999</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="36">
         <v>6.16</v>
       </c>
-      <c r="N26" s="41">
-        <f t="shared" ref="N26" si="66">+K26-M26</f>
+      <c r="N26" s="35">
+        <f t="shared" ref="N26" si="75">+K26-M26</f>
         <v>0.24150000000000027</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O26" s="58">
         <f>+N26/(G26*21)</f>
         <v>9.5427920598763538E-2</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="R26" s="25" t="str">
+      <c r="R26" s="65" t="str">
         <f>+CONCATENATE("CL-",$AF26,"-BBT-",$AG26)</f>
         <v>CL-10-BBT-7</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="S26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="AF26">
@@ -3749,30 +3895,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="37"/>
       <c r="B27" s="17">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="59"/>
       <c r="P27" s="1"/>
-      <c r="R27" s="25" t="str">
-        <f t="shared" ref="R27:R28" si="67">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
+      <c r="R27" s="65" t="str">
+        <f t="shared" ref="R27:R28" si="76">+CONCATENATE("CL-",$AF27,"-BBT-",$AG27)</f>
         <v>CL-10-BBT-8</v>
       </c>
-      <c r="S27" s="61"/>
+      <c r="S27" s="34"/>
       <c r="AF27">
         <v>10</v>
       </c>
@@ -3780,30 +3926,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="37"/>
       <c r="B28" s="17">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="36"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="59"/>
       <c r="P28" s="1"/>
-      <c r="R28" s="25" t="str">
-        <f t="shared" si="67"/>
+      <c r="R28" s="65" t="str">
+        <f t="shared" si="76"/>
         <v>CL-10-BBT-9</v>
       </c>
-      <c r="S28" s="61"/>
+      <c r="S28" s="34"/>
       <c r="AF28">
         <v>10</v>
       </c>
@@ -3811,8 +3957,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="17"/>
@@ -3826,21 +3972,21 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="48">
+      <c r="K29" s="39">
         <v>6.375</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="45">
         <f>ROUND(G29*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="36">
         <v>5.875</v>
       </c>
-      <c r="N29" s="41">
-        <f t="shared" ref="N29:N44" si="68">+K29-M29</f>
+      <c r="N29" s="35">
+        <f t="shared" ref="N29:N44" si="77">+K29-M29</f>
         <v>0.5</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="60">
         <f>+N29/(G29*21)</f>
         <v>0.19677292404565133</v>
       </c>
@@ -3849,7 +3995,7 @@
         <f>+CONCATENATE("CL-",$AF29,"-BBT-",$AG29)</f>
         <v>CL-20-BBT-1</v>
       </c>
-      <c r="S29" s="61" t="s">
+      <c r="S29" s="34" t="s">
         <v>35</v>
       </c>
       <c r="T29">
@@ -3882,8 +4028,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="37"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -3893,17 +4039,17 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="38"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="1"/>
       <c r="R30" s="25" t="str">
-        <f t="shared" ref="R30:R31" si="69">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
+        <f t="shared" ref="R30:R31" si="78">+CONCATENATE("CL-",$AF30,"-BBT-",$AG30)</f>
         <v>CL-20-BBT-2</v>
       </c>
-      <c r="S30" s="61"/>
+      <c r="S30" s="34"/>
       <c r="T30">
         <v>0.67</v>
       </c>
@@ -3916,7 +4062,7 @@
         <v>0.67217202427973843</v>
       </c>
       <c r="AB30">
-        <f t="shared" ref="AB30:AB31" si="70">+AA30*1/16</f>
+        <f t="shared" ref="AB30:AB31" si="79">+AA30*1/16</f>
         <v>4.2010751517483652E-2</v>
       </c>
       <c r="AF30">
@@ -3926,8 +4072,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:42" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="37"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -3937,17 +4083,17 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="1"/>
       <c r="R31" s="25" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>CL-20-BBT-3</v>
       </c>
-      <c r="S31" s="61"/>
+      <c r="S31" s="34"/>
       <c r="T31">
         <v>0.67</v>
       </c>
@@ -3960,7 +4106,7 @@
         <v>0.67217202427973843</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>4.2010751517483652E-2</v>
       </c>
       <c r="AF31">
@@ -3970,8 +4116,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:42" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="17"/>
@@ -3985,22 +4131,22 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="48">
+      <c r="K32" s="39">
         <v>6.4349999999999996</v>
       </c>
-      <c r="L32" s="32">
-        <f t="shared" ref="L32" si="71">ROUND(G32*21*0.2,4)</f>
+      <c r="L32" s="45">
+        <f t="shared" ref="L32" si="80">ROUND(G32*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="36">
         <v>5.8650000000000002</v>
       </c>
-      <c r="N32" s="41">
-        <f t="shared" si="68"/>
+      <c r="N32" s="35">
+        <f t="shared" si="77"/>
         <v>0.5699999999999994</v>
       </c>
-      <c r="O32" s="37">
-        <f t="shared" ref="O32" si="72">+N32/(G32*21)</f>
+      <c r="O32" s="60">
+        <f t="shared" ref="O32" si="81">+N32/(G32*21)</f>
         <v>0.22432113341204227</v>
       </c>
       <c r="P32" s="1"/>
@@ -4008,7 +4154,7 @@
         <f>+CONCATENATE("CL-",$AF32,"-BBT-",$AG32)</f>
         <v>CL-20-BBT-4</v>
       </c>
-      <c r="S32" s="61" t="s">
+      <c r="S32" s="34" t="s">
         <v>36</v>
       </c>
       <c r="AF32">
@@ -4019,7 +4165,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="45"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -4029,17 +4175,17 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="61"/>
       <c r="P33" s="1"/>
       <c r="R33" s="25" t="str">
-        <f t="shared" ref="R33:R46" si="73">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
+        <f t="shared" ref="R33:R46" si="82">+CONCATENATE("CL-",$AF33,"-BBT-",$AG33)</f>
         <v>CL-20-BBT-5</v>
       </c>
-      <c r="S33" s="61"/>
+      <c r="S33" s="34"/>
       <c r="AF33">
         <v>20</v>
       </c>
@@ -4048,7 +4194,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="45"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -4058,17 +4204,17 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="38"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="61"/>
       <c r="P34" s="1"/>
       <c r="R34" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-20-BBT-6</v>
       </c>
-      <c r="S34" s="61"/>
+      <c r="S34" s="34"/>
       <c r="AF34">
         <v>20</v>
       </c>
@@ -4077,7 +4223,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="17"/>
@@ -4091,30 +4237,30 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="48">
+      <c r="K35" s="39">
         <v>6.375</v>
       </c>
-      <c r="L35" s="32">
-        <f t="shared" ref="L35" si="74">ROUND(G35*21*0.2,4)</f>
+      <c r="L35" s="45">
+        <f t="shared" ref="L35" si="83">ROUND(G35*21*0.2,4)</f>
         <v>0.50819999999999999</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="36">
         <v>6.1550000000000002</v>
       </c>
-      <c r="N35" s="41">
-        <f t="shared" si="68"/>
+      <c r="N35" s="35">
+        <f t="shared" si="77"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="O35" s="35">
-        <f t="shared" ref="O35" si="75">+N35/(G35*21)</f>
+      <c r="O35" s="58">
+        <f t="shared" ref="O35" si="84">+N35/(G35*21)</f>
         <v>8.6580086580086479E-2</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="R35" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R35" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-10-BBT-10</v>
       </c>
-      <c r="S35" s="61" t="s">
+      <c r="S35" s="34" t="s">
         <v>37</v>
       </c>
       <c r="AF35">
@@ -4125,7 +4271,7 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="45"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -4135,17 +4281,17 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="36"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="59"/>
       <c r="P36" s="1"/>
-      <c r="R36" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R36" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-10-BBT-11</v>
       </c>
-      <c r="S36" s="61"/>
+      <c r="S36" s="34"/>
       <c r="AF36">
         <v>10</v>
       </c>
@@ -4154,7 +4300,7 @@
       </c>
     </row>
     <row r="37" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="45"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -4164,17 +4310,17 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="36"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="59"/>
       <c r="P37" s="1"/>
-      <c r="R37" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R37" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-10-BBT-12</v>
       </c>
-      <c r="S37" s="61"/>
+      <c r="S37" s="34"/>
       <c r="AF37">
         <v>10</v>
       </c>
@@ -4183,7 +4329,7 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="17"/>
@@ -4197,30 +4343,30 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="48">
+      <c r="K38" s="39">
         <v>6.4649999999999999</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="45">
         <f>ROUND(G38*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="36">
         <v>5.93</v>
       </c>
-      <c r="N38" s="41">
-        <f t="shared" si="68"/>
+      <c r="N38" s="35">
+        <f t="shared" si="77"/>
         <v>0.53500000000000014</v>
       </c>
-      <c r="O38" s="37">
-        <f t="shared" ref="O38" si="76">+N38/(G38*21)</f>
+      <c r="O38" s="60">
+        <f t="shared" ref="O38" si="85">+N38/(G38*21)</f>
         <v>0.21054702872884698</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="R38" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R38" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-20-BBT-7</v>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="S38" s="34" t="s">
         <v>38</v>
       </c>
       <c r="AF38">
@@ -4231,7 +4377,7 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="45"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4241,17 +4387,17 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="61"/>
       <c r="P39" s="1"/>
-      <c r="R39" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R39" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-20-BBT-8</v>
       </c>
-      <c r="S39" s="61"/>
+      <c r="S39" s="34"/>
       <c r="AF39">
         <v>20</v>
       </c>
@@ -4260,7 +4406,7 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="45"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -4270,17 +4416,17 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="38"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="61"/>
       <c r="P40" s="1"/>
-      <c r="R40" s="25" t="str">
-        <f t="shared" si="73"/>
+      <c r="R40" s="65" t="str">
+        <f t="shared" si="82"/>
         <v>CL-20-BBT-9</v>
       </c>
-      <c r="S40" s="61"/>
+      <c r="S40" s="34"/>
       <c r="AF40">
         <v>20</v>
       </c>
@@ -4289,7 +4435,7 @@
       </c>
     </row>
     <row r="41" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="17"/>
@@ -4303,30 +4449,30 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="48">
+      <c r="K41" s="39">
         <v>6.3150000000000004</v>
       </c>
-      <c r="L41" s="32">
-        <f t="shared" ref="L41" si="77">ROUND(G41*21*0.25,4)</f>
+      <c r="L41" s="45">
+        <f t="shared" ref="L41" si="86">ROUND(G41*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="36">
         <v>5.95</v>
       </c>
-      <c r="N41" s="41">
-        <f t="shared" si="68"/>
+      <c r="N41" s="35">
+        <f t="shared" si="77"/>
         <v>0.36500000000000021</v>
       </c>
-      <c r="O41" s="39">
-        <f t="shared" ref="O41" si="78">+N41/(G41*21)</f>
+      <c r="O41" s="62">
+        <f t="shared" ref="O41" si="87">+N41/(G41*21)</f>
         <v>0.14364423455332556</v>
       </c>
       <c r="P41" s="1"/>
       <c r="R41" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-1</v>
       </c>
-      <c r="S41" s="61" t="s">
+      <c r="S41" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF41">
@@ -4337,7 +4483,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="45"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="17"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -4347,17 +4493,17 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="40"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="63"/>
       <c r="P42" s="1"/>
       <c r="R42" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-2</v>
       </c>
-      <c r="S42" s="61"/>
+      <c r="S42" s="34"/>
       <c r="AF42">
         <v>15</v>
       </c>
@@ -4366,7 +4512,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="46"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -4377,16 +4523,16 @@
       <c r="I43" s="23"/>
       <c r="J43" s="24"/>
       <c r="K43" s="49"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="40"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="63"/>
       <c r="P43" s="1"/>
       <c r="R43" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-3</v>
       </c>
-      <c r="S43" s="61"/>
+      <c r="S43" s="34"/>
       <c r="AF43">
         <v>15</v>
       </c>
@@ -4395,7 +4541,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
@@ -4412,27 +4558,27 @@
       <c r="K44" s="50">
         <v>6.42</v>
       </c>
-      <c r="L44" s="32">
-        <f t="shared" ref="L44" si="79">ROUND(G44*21*0.25,4)</f>
+      <c r="L44" s="45">
+        <f t="shared" ref="L44" si="88">ROUND(G44*21*0.25,4)</f>
         <v>0.63529999999999998</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="55">
         <v>6.0449999999999999</v>
       </c>
-      <c r="N44" s="41">
-        <f t="shared" si="68"/>
+      <c r="N44" s="35">
+        <f t="shared" si="77"/>
         <v>0.375</v>
       </c>
-      <c r="O44" s="39">
-        <f t="shared" ref="O44" si="80">+N44/(G44*21)</f>
+      <c r="O44" s="62">
+        <f t="shared" ref="O44" si="89">+N44/(G44*21)</f>
         <v>0.14757969303423848</v>
       </c>
       <c r="P44" s="1"/>
       <c r="R44" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-4</v>
       </c>
-      <c r="S44" s="61" t="s">
+      <c r="S44" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AF44">
@@ -4443,7 +4589,7 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -4454,16 +4600,16 @@
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
       <c r="K45" s="50"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="40"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="63"/>
       <c r="P45" s="1"/>
       <c r="R45" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-5</v>
       </c>
-      <c r="S45" s="61"/>
+      <c r="S45" s="34"/>
       <c r="AF45">
         <v>15</v>
       </c>
@@ -4472,7 +4618,7 @@
       </c>
     </row>
     <row r="46" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -4483,16 +4629,16 @@
       <c r="I46" s="13"/>
       <c r="J46" s="12"/>
       <c r="K46" s="50"/>
-      <c r="L46" s="32"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="40"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="63"/>
       <c r="P46" s="1"/>
       <c r="R46" s="25" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>CL-15-BBT-6</v>
       </c>
-      <c r="S46" s="61"/>
+      <c r="S46" s="34"/>
       <c r="AF46">
         <v>15</v>
       </c>
@@ -4540,39 +4686,132 @@
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
@@ -4597,132 +4836,39 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="S26:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4730,6 +4876,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F30"/>
   <sheetViews>
@@ -5083,7 +5241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -5155,7 +5313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
